--- a/List Template.xlsx
+++ b/List Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Newer Docs\Databases\Mailout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Personal\mailout\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8169BC6F-10CE-43FB-839A-52226389D56B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10800"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,10 +24,10 @@
     <definedName name="Z_41D1DBA5_9E1F_41CB_982D_A41571380175_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$T$1</definedName>
     <definedName name="Z_FC8A8EEF_AA1A_4C32_A1B7_16C06299367C_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$T$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ryan Fortune - Personal View" guid="{FC8A8EEF-AA1A-4C32-A1B7-16C06299367C}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="Lachlan Moody - Personal View" guid="{1EBB3E1E-8969-44A1-8507-75593D680DDF}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="Ryan Fortune - Personal View" guid="{FC8A8EEF-AA1A-4C32-A1B7-16C06299367C}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -135,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -235,17 +236,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Currency 16 2" xfId="12"/>
-    <cellStyle name="Currency 2" xfId="3"/>
-    <cellStyle name="Currency 2 2" xfId="5"/>
-    <cellStyle name="Currency 2 3" xfId="7"/>
-    <cellStyle name="Currency 2 4" xfId="9"/>
-    <cellStyle name="Currency 2 5" xfId="11"/>
-    <cellStyle name="Currency 3" xfId="2"/>
-    <cellStyle name="Currency 4" xfId="4"/>
-    <cellStyle name="Currency 5" xfId="6"/>
-    <cellStyle name="Currency 6" xfId="8"/>
-    <cellStyle name="Currency 7" xfId="10"/>
+    <cellStyle name="Currency 16 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Currency 2 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Currency 2 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Currency 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Currency 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Currency 6" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Currency 7" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -6733,7 +6734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB500"/>
   <sheetViews>
@@ -6741,7 +6742,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6878,39 +6879,39 @@
         <v/>
       </c>
       <c r="T2" t="str">
-        <f t="shared" ref="T2:T66" si="0">IF(B2 = "", "", CONCATENATE(S2,B2, ".xlsx"))</f>
-        <v/>
-      </c>
-      <c r="U2" t="e">
-        <f>LEFT(TRIM(CONCATENATE(IF(F2&gt;0,"Melbourne, ",""),IF(G2&gt;0,"Yarra, ",""),IF(H2&gt;0,"Darebin, ",""), IF(I2&gt;0, "Maribyrnong, ", ""), IF(J2&gt;0, "Knox, ", ""), IF(K2&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F2&gt;0,"Melbourne, ",""),IF(G2&gt;0,"Yarra, ",""),IF(H2&gt;0,"Darebin, ",""), IF(I2&gt;0, "Maribyrnong, ", ""), IF(J2&gt;0, "Knox, ", ""), IF(K2&gt;0, "Monash, ", ""))))-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V2" t="e">
-        <f t="shared" ref="V2:V33" si="1">IFERROR(SUBSTITUTE(U2,","," and",LEN(U2)-LEN(SUBSTITUTE(U2,",",""))),U2)</f>
-        <v>#VALUE!</v>
+        <f t="shared" ref="T2" si="0">IF(B2 = "", "", CONCATENATE(S2,B2, ".xlsx"))</f>
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <f>IFERROR(LEFT(TRIM(CONCATENATE(IF(F2&gt;0,"Melbourne, ",""),IF(G2&gt;0,"Yarra, ",""),IF(H2&gt;0,"Darebin, ",""), IF(I2&gt;0, "Maribyrnong, ", ""), IF(J2&gt;0, "Knox, ", ""), IF(K2&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F2&gt;0,"Melbourne, ",""),IF(G2&gt;0,"Yarra, ",""),IF(H2&gt;0,"Darebin, ",""), IF(I2&gt;0, "Maribyrnong, ", ""), IF(J2&gt;0, "Knox, ", ""), IF(K2&gt;0, "Monash, ", ""))))-1),"")</f>
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" ref="V2" si="1">IFERROR(SUBSTITUTE(U2,","," and",LEN(U2)-LEN(SUBSTITUTE(U2,",",""))),U2)</f>
+        <v/>
       </c>
       <c r="W2" s="10" t="str">
-        <f t="shared" ref="W2:W33" si="2">IF(F2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Melbourne.pdf", " ")</f>
+        <f t="shared" ref="W2" si="2">IF(F2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Melbourne.pdf", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X2" s="10" t="str">
-        <f t="shared" ref="X2:X33" si="3">IF(G2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Yarra.pdf", " ")</f>
+        <f t="shared" ref="X2" si="3">IF(G2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Yarra.pdf", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y2" s="10" t="str">
-        <f t="shared" ref="Y2:Y33" si="4">IF(H2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Darebin.pdf", " ")</f>
+        <f t="shared" ref="Y2" si="4">IF(H2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Darebin.pdf", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z2" s="10" t="str">
-        <f t="shared" ref="Z2:Z33" si="5">IF(I2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Maribyrnong.pdf", " ")</f>
+        <f t="shared" ref="Z2" si="5">IF(I2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Maribyrnong.pdf", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA2" s="10" t="str">
-        <f t="shared" ref="AA2:AA33" si="6">IF(J2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Knox.pdf", " ")</f>
+        <f t="shared" ref="AA2" si="6">IF(J2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Knox.pdf", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB2" s="10" t="str">
-        <f t="shared" ref="AB2:AB33" si="7">IF(K2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Monash.pdf", " ")</f>
+        <f t="shared" ref="AB2" si="7">IF(K2&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Monash.pdf", " ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -6948,13 +6949,13 @@
         <f t="shared" ref="T3:T66" si="9">IF(B3 = "", "", CONCATENATE(S3,B3, ".xlsx"))</f>
         <v/>
       </c>
-      <c r="U3" t="e">
-        <f t="shared" ref="U3:U66" si="10">LEFT(TRIM(CONCATENATE(IF(F3&gt;0,"Melbourne, ",""),IF(G3&gt;0,"Yarra, ",""),IF(H3&gt;0,"Darebin, ",""), IF(I3&gt;0, "Maribyrnong, ", ""), IF(J3&gt;0, "Knox, ", ""), IF(K3&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F3&gt;0,"Melbourne, ",""),IF(G3&gt;0,"Yarra, ",""),IF(H3&gt;0,"Darebin, ",""), IF(I3&gt;0, "Maribyrnong, ", ""), IF(J3&gt;0, "Knox, ", ""), IF(K3&gt;0, "Monash, ", ""))))-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V3" t="e">
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U66" si="10">IFERROR(LEFT(TRIM(CONCATENATE(IF(F3&gt;0,"Melbourne, ",""),IF(G3&gt;0,"Yarra, ",""),IF(H3&gt;0,"Darebin, ",""), IF(I3&gt;0, "Maribyrnong, ", ""), IF(J3&gt;0, "Knox, ", ""), IF(K3&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F3&gt;0,"Melbourne, ",""),IF(G3&gt;0,"Yarra, ",""),IF(H3&gt;0,"Darebin, ",""), IF(I3&gt;0, "Maribyrnong, ", ""), IF(J3&gt;0, "Knox, ", ""), IF(K3&gt;0, "Monash, ", ""))))-1),"")</f>
+        <v/>
+      </c>
+      <c r="V3" t="str">
         <f t="shared" ref="V3:V66" si="11">IFERROR(SUBSTITUTE(U3,","," and",LEN(U3)-LEN(SUBSTITUTE(U3,",",""))),U3)</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W3" s="10" t="str">
         <f t="shared" ref="W3:W66" si="12">IF(F3&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Melbourne.pdf", " ")</f>
@@ -7015,13 +7016,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U4" t="e">
+      <c r="U4" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V4" t="e">
+        <v/>
+      </c>
+      <c r="V4" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W4" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7082,13 +7083,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U5" t="e">
+      <c r="U5" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V5" t="e">
+        <v/>
+      </c>
+      <c r="V5" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W5" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7149,13 +7150,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U6" t="e">
+      <c r="U6" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V6" t="e">
+        <v/>
+      </c>
+      <c r="V6" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W6" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7216,13 +7217,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U7" t="e">
+      <c r="U7" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" t="e">
+        <v/>
+      </c>
+      <c r="V7" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W7" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7283,13 +7284,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U8" t="e">
+      <c r="U8" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V8" t="e">
+        <v/>
+      </c>
+      <c r="V8" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W8" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7350,13 +7351,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U9" t="e">
+      <c r="U9" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V9" t="e">
+        <v/>
+      </c>
+      <c r="V9" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W9" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7417,13 +7418,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U10" t="e">
+      <c r="U10" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V10" t="e">
+        <v/>
+      </c>
+      <c r="V10" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W10" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7484,13 +7485,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U11" t="e">
+      <c r="U11" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V11" t="e">
+        <v/>
+      </c>
+      <c r="V11" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W11" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7551,13 +7552,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U12" t="e">
+      <c r="U12" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V12" t="e">
+        <v/>
+      </c>
+      <c r="V12" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W12" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7618,13 +7619,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U13" t="e">
+      <c r="U13" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V13" t="e">
+        <v/>
+      </c>
+      <c r="V13" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W13" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7685,13 +7686,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U14" t="e">
+      <c r="U14" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V14" t="e">
+        <v/>
+      </c>
+      <c r="V14" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W14" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7752,13 +7753,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U15" t="e">
+      <c r="U15" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V15" t="e">
+        <v/>
+      </c>
+      <c r="V15" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W15" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7819,13 +7820,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U16" t="e">
+      <c r="U16" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V16" t="e">
+        <v/>
+      </c>
+      <c r="V16" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W16" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7886,13 +7887,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U17" t="e">
+      <c r="U17" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V17" t="e">
+        <v/>
+      </c>
+      <c r="V17" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W17" s="10" t="str">
         <f t="shared" si="12"/>
@@ -7953,13 +7954,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U18" t="e">
+      <c r="U18" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V18" t="e">
+        <v/>
+      </c>
+      <c r="V18" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W18" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8020,13 +8021,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U19" t="e">
+      <c r="U19" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V19" t="e">
+        <v/>
+      </c>
+      <c r="V19" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W19" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8087,13 +8088,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U20" t="e">
+      <c r="U20" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V20" t="e">
+        <v/>
+      </c>
+      <c r="V20" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W20" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8154,13 +8155,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U21" t="e">
+      <c r="U21" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V21" t="e">
+        <v/>
+      </c>
+      <c r="V21" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W21" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8221,13 +8222,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U22" t="e">
+      <c r="U22" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V22" t="e">
+        <v/>
+      </c>
+      <c r="V22" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W22" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8288,13 +8289,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U23" t="e">
+      <c r="U23" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V23" t="e">
+        <v/>
+      </c>
+      <c r="V23" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W23" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8355,13 +8356,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U24" t="e">
+      <c r="U24" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V24" t="e">
+        <v/>
+      </c>
+      <c r="V24" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W24" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8422,13 +8423,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U25" t="e">
+      <c r="U25" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V25" t="e">
+        <v/>
+      </c>
+      <c r="V25" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W25" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8489,13 +8490,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U26" t="e">
+      <c r="U26" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V26" t="e">
+        <v/>
+      </c>
+      <c r="V26" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W26" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8556,13 +8557,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U27" t="e">
+      <c r="U27" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V27" t="e">
+        <v/>
+      </c>
+      <c r="V27" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W27" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8623,13 +8624,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U28" t="e">
+      <c r="U28" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V28" t="e">
+        <v/>
+      </c>
+      <c r="V28" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W28" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8690,13 +8691,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U29" t="e">
+      <c r="U29" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V29" t="e">
+        <v/>
+      </c>
+      <c r="V29" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W29" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8757,13 +8758,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U30" t="e">
+      <c r="U30" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V30" t="e">
+        <v/>
+      </c>
+      <c r="V30" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W30" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8824,13 +8825,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U31" t="e">
+      <c r="U31" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V31" t="e">
+        <v/>
+      </c>
+      <c r="V31" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W31" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8891,13 +8892,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U32" t="e">
+      <c r="U32" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V32" t="e">
+        <v/>
+      </c>
+      <c r="V32" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W32" s="10" t="str">
         <f t="shared" si="12"/>
@@ -8958,13 +8959,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U33" t="e">
+      <c r="U33" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V33" t="e">
+        <v/>
+      </c>
+      <c r="V33" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W33" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9025,13 +9026,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U34" t="e">
+      <c r="U34" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V34" t="e">
+        <v/>
+      </c>
+      <c r="V34" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W34" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9092,13 +9093,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U35" t="e">
+      <c r="U35" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V35" t="e">
+        <v/>
+      </c>
+      <c r="V35" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W35" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9159,13 +9160,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U36" t="e">
+      <c r="U36" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V36" t="e">
+        <v/>
+      </c>
+      <c r="V36" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W36" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9226,13 +9227,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U37" t="e">
+      <c r="U37" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V37" t="e">
+        <v/>
+      </c>
+      <c r="V37" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W37" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9293,13 +9294,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U38" t="e">
+      <c r="U38" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V38" t="e">
+        <v/>
+      </c>
+      <c r="V38" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W38" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9360,13 +9361,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U39" t="e">
+      <c r="U39" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V39" t="e">
+        <v/>
+      </c>
+      <c r="V39" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W39" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9427,13 +9428,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U40" t="e">
+      <c r="U40" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V40" t="e">
+        <v/>
+      </c>
+      <c r="V40" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W40" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9494,13 +9495,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U41" t="e">
+      <c r="U41" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V41" t="e">
+        <v/>
+      </c>
+      <c r="V41" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W41" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9561,13 +9562,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U42" t="e">
+      <c r="U42" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V42" t="e">
+        <v/>
+      </c>
+      <c r="V42" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W42" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9628,13 +9629,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U43" t="e">
+      <c r="U43" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V43" t="e">
+        <v/>
+      </c>
+      <c r="V43" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W43" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9695,13 +9696,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U44" t="e">
+      <c r="U44" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V44" t="e">
+        <v/>
+      </c>
+      <c r="V44" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W44" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9762,13 +9763,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U45" t="e">
+      <c r="U45" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V45" t="e">
+        <v/>
+      </c>
+      <c r="V45" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W45" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9829,13 +9830,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U46" t="e">
+      <c r="U46" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V46" t="e">
+        <v/>
+      </c>
+      <c r="V46" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W46" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9896,13 +9897,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U47" t="e">
+      <c r="U47" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V47" t="e">
+        <v/>
+      </c>
+      <c r="V47" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W47" s="10" t="str">
         <f t="shared" si="12"/>
@@ -9963,13 +9964,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U48" t="e">
+      <c r="U48" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V48" t="e">
+        <v/>
+      </c>
+      <c r="V48" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W48" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10030,13 +10031,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U49" t="e">
+      <c r="U49" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V49" t="e">
+        <v/>
+      </c>
+      <c r="V49" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W49" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10097,13 +10098,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U50" t="e">
+      <c r="U50" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V50" t="e">
+        <v/>
+      </c>
+      <c r="V50" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W50" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10164,13 +10165,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U51" t="e">
+      <c r="U51" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V51" t="e">
+        <v/>
+      </c>
+      <c r="V51" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W51" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10231,13 +10232,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U52" t="e">
+      <c r="U52" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V52" t="e">
+        <v/>
+      </c>
+      <c r="V52" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W52" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10298,13 +10299,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U53" t="e">
+      <c r="U53" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V53" t="e">
+        <v/>
+      </c>
+      <c r="V53" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W53" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10365,13 +10366,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U54" t="e">
+      <c r="U54" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V54" t="e">
+        <v/>
+      </c>
+      <c r="V54" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W54" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10432,13 +10433,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U55" t="e">
+      <c r="U55" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V55" t="e">
+        <v/>
+      </c>
+      <c r="V55" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W55" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10499,13 +10500,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U56" t="e">
+      <c r="U56" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V56" t="e">
+        <v/>
+      </c>
+      <c r="V56" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W56" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10566,13 +10567,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U57" t="e">
+      <c r="U57" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V57" t="e">
+        <v/>
+      </c>
+      <c r="V57" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W57" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10633,13 +10634,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U58" t="e">
+      <c r="U58" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V58" t="e">
+        <v/>
+      </c>
+      <c r="V58" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W58" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10700,13 +10701,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U59" t="e">
+      <c r="U59" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V59" t="e">
+        <v/>
+      </c>
+      <c r="V59" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W59" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10767,13 +10768,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U60" t="e">
+      <c r="U60" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V60" t="e">
+        <v/>
+      </c>
+      <c r="V60" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W60" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10834,13 +10835,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U61" t="e">
+      <c r="U61" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V61" t="e">
+        <v/>
+      </c>
+      <c r="V61" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W61" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10901,13 +10902,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U62" t="e">
+      <c r="U62" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V62" t="e">
+        <v/>
+      </c>
+      <c r="V62" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W62" s="10" t="str">
         <f t="shared" si="12"/>
@@ -10968,13 +10969,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U63" t="e">
+      <c r="U63" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V63" t="e">
+        <v/>
+      </c>
+      <c r="V63" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W63" s="10" t="str">
         <f t="shared" si="12"/>
@@ -11035,13 +11036,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U64" t="e">
+      <c r="U64" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V64" t="e">
+        <v/>
+      </c>
+      <c r="V64" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W64" s="10" t="str">
         <f t="shared" si="12"/>
@@ -11102,13 +11103,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U65" t="e">
+      <c r="U65" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V65" t="e">
+        <v/>
+      </c>
+      <c r="V65" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W65" s="10" t="str">
         <f t="shared" si="12"/>
@@ -11169,13 +11170,13 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="U66" t="e">
+      <c r="U66" t="str">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V66" t="e">
+        <v/>
+      </c>
+      <c r="V66" t="str">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W66" s="10" t="str">
         <f t="shared" si="12"/>
@@ -11236,13 +11237,13 @@
         <f t="shared" ref="T67:T130" si="19">IF(B67 = "", "", CONCATENATE(S67,B67, ".xlsx"))</f>
         <v/>
       </c>
-      <c r="U67" t="e">
-        <f t="shared" ref="U67:U130" si="20">LEFT(TRIM(CONCATENATE(IF(F67&gt;0,"Melbourne, ",""),IF(G67&gt;0,"Yarra, ",""),IF(H67&gt;0,"Darebin, ",""), IF(I67&gt;0, "Maribyrnong, ", ""), IF(J67&gt;0, "Knox, ", ""), IF(K67&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F67&gt;0,"Melbourne, ",""),IF(G67&gt;0,"Yarra, ",""),IF(H67&gt;0,"Darebin, ",""), IF(I67&gt;0, "Maribyrnong, ", ""), IF(J67&gt;0, "Knox, ", ""), IF(K67&gt;0, "Monash, ", ""))))-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V67" t="e">
+      <c r="U67" t="str">
+        <f t="shared" ref="U67:U130" si="20">IFERROR(LEFT(TRIM(CONCATENATE(IF(F67&gt;0,"Melbourne, ",""),IF(G67&gt;0,"Yarra, ",""),IF(H67&gt;0,"Darebin, ",""), IF(I67&gt;0, "Maribyrnong, ", ""), IF(J67&gt;0, "Knox, ", ""), IF(K67&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F67&gt;0,"Melbourne, ",""),IF(G67&gt;0,"Yarra, ",""),IF(H67&gt;0,"Darebin, ",""), IF(I67&gt;0, "Maribyrnong, ", ""), IF(J67&gt;0, "Knox, ", ""), IF(K67&gt;0, "Monash, ", ""))))-1),"")</f>
+        <v/>
+      </c>
+      <c r="V67" t="str">
         <f t="shared" ref="V67:V130" si="21">IFERROR(SUBSTITUTE(U67,","," and",LEN(U67)-LEN(SUBSTITUTE(U67,",",""))),U67)</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W67" s="10" t="str">
         <f t="shared" ref="W67:W130" si="22">IF(F67&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Melbourne.pdf", " ")</f>
@@ -11303,13 +11304,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U68" t="e">
+      <c r="U68" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V68" t="e">
+        <v/>
+      </c>
+      <c r="V68" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W68" s="10" t="str">
         <f t="shared" si="22"/>
@@ -11370,13 +11371,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U69" t="e">
+      <c r="U69" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V69" t="e">
+        <v/>
+      </c>
+      <c r="V69" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W69" s="10" t="str">
         <f t="shared" si="22"/>
@@ -11437,13 +11438,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U70" t="e">
+      <c r="U70" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V70" t="e">
+        <v/>
+      </c>
+      <c r="V70" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W70" s="10" t="str">
         <f t="shared" si="22"/>
@@ -11504,13 +11505,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U71" t="e">
+      <c r="U71" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V71" t="e">
+        <v/>
+      </c>
+      <c r="V71" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W71" s="10" t="str">
         <f t="shared" si="22"/>
@@ -11571,13 +11572,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U72" t="e">
+      <c r="U72" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V72" t="e">
+        <v/>
+      </c>
+      <c r="V72" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W72" s="10" t="str">
         <f t="shared" si="22"/>
@@ -11638,13 +11639,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U73" t="e">
+      <c r="U73" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V73" t="e">
+        <v/>
+      </c>
+      <c r="V73" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W73" s="10" t="str">
         <f t="shared" si="22"/>
@@ -11705,13 +11706,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U74" t="e">
+      <c r="U74" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V74" t="e">
+        <v/>
+      </c>
+      <c r="V74" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W74" s="10" t="str">
         <f t="shared" si="22"/>
@@ -11772,13 +11773,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U75" t="e">
+      <c r="U75" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V75" t="e">
+        <v/>
+      </c>
+      <c r="V75" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W75" s="10" t="str">
         <f t="shared" si="22"/>
@@ -11839,13 +11840,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U76" t="e">
+      <c r="U76" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V76" t="e">
+        <v/>
+      </c>
+      <c r="V76" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W76" s="10" t="str">
         <f t="shared" si="22"/>
@@ -11906,13 +11907,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U77" t="e">
+      <c r="U77" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V77" t="e">
+        <v/>
+      </c>
+      <c r="V77" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W77" s="10" t="str">
         <f t="shared" si="22"/>
@@ -11973,13 +11974,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U78" t="e">
+      <c r="U78" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V78" t="e">
+        <v/>
+      </c>
+      <c r="V78" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W78" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12040,13 +12041,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U79" t="e">
+      <c r="U79" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V79" t="e">
+        <v/>
+      </c>
+      <c r="V79" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W79" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12107,13 +12108,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U80" t="e">
+      <c r="U80" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V80" t="e">
+        <v/>
+      </c>
+      <c r="V80" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W80" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12174,13 +12175,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U81" t="e">
+      <c r="U81" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V81" t="e">
+        <v/>
+      </c>
+      <c r="V81" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W81" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12241,13 +12242,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U82" t="e">
+      <c r="U82" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V82" t="e">
+        <v/>
+      </c>
+      <c r="V82" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W82" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12308,13 +12309,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U83" t="e">
+      <c r="U83" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V83" t="e">
+        <v/>
+      </c>
+      <c r="V83" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W83" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12375,13 +12376,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U84" t="e">
+      <c r="U84" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V84" t="e">
+        <v/>
+      </c>
+      <c r="V84" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W84" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12442,13 +12443,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U85" t="e">
+      <c r="U85" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V85" t="e">
+        <v/>
+      </c>
+      <c r="V85" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W85" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12509,13 +12510,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U86" t="e">
+      <c r="U86" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V86" t="e">
+        <v/>
+      </c>
+      <c r="V86" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W86" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12576,13 +12577,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U87" t="e">
+      <c r="U87" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V87" t="e">
+        <v/>
+      </c>
+      <c r="V87" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W87" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12643,13 +12644,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U88" t="e">
+      <c r="U88" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V88" t="e">
+        <v/>
+      </c>
+      <c r="V88" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W88" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12710,13 +12711,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U89" t="e">
+      <c r="U89" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V89" t="e">
+        <v/>
+      </c>
+      <c r="V89" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W89" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12777,13 +12778,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U90" t="e">
+      <c r="U90" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V90" t="e">
+        <v/>
+      </c>
+      <c r="V90" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W90" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12844,13 +12845,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U91" t="e">
+      <c r="U91" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V91" t="e">
+        <v/>
+      </c>
+      <c r="V91" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W91" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12911,13 +12912,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U92" t="e">
+      <c r="U92" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V92" t="e">
+        <v/>
+      </c>
+      <c r="V92" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W92" s="10" t="str">
         <f t="shared" si="22"/>
@@ -12978,13 +12979,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U93" t="e">
+      <c r="U93" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V93" t="e">
+        <v/>
+      </c>
+      <c r="V93" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W93" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13045,13 +13046,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U94" t="e">
+      <c r="U94" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V94" t="e">
+        <v/>
+      </c>
+      <c r="V94" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W94" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13112,13 +13113,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U95" t="e">
+      <c r="U95" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V95" t="e">
+        <v/>
+      </c>
+      <c r="V95" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W95" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13179,13 +13180,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U96" t="e">
+      <c r="U96" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V96" t="e">
+        <v/>
+      </c>
+      <c r="V96" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W96" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13246,13 +13247,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U97" t="e">
+      <c r="U97" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V97" t="e">
+        <v/>
+      </c>
+      <c r="V97" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W97" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13313,13 +13314,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U98" t="e">
+      <c r="U98" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V98" t="e">
+        <v/>
+      </c>
+      <c r="V98" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W98" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13368,13 +13369,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U99" t="e">
+      <c r="U99" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V99" t="e">
+        <v/>
+      </c>
+      <c r="V99" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W99" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13423,13 +13424,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U100" t="e">
+      <c r="U100" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V100" t="e">
+        <v/>
+      </c>
+      <c r="V100" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W100" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13478,13 +13479,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U101" t="e">
+      <c r="U101" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V101" t="e">
+        <v/>
+      </c>
+      <c r="V101" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W101" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13533,13 +13534,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U102" t="e">
+      <c r="U102" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V102" t="e">
+        <v/>
+      </c>
+      <c r="V102" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W102" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13588,13 +13589,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U103" t="e">
+      <c r="U103" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V103" t="e">
+        <v/>
+      </c>
+      <c r="V103" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W103" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13643,13 +13644,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U104" t="e">
+      <c r="U104" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V104" t="e">
+        <v/>
+      </c>
+      <c r="V104" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W104" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13698,13 +13699,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U105" t="e">
+      <c r="U105" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V105" t="e">
+        <v/>
+      </c>
+      <c r="V105" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W105" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13753,13 +13754,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U106" t="e">
+      <c r="U106" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V106" t="e">
+        <v/>
+      </c>
+      <c r="V106" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W106" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13808,13 +13809,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U107" t="e">
+      <c r="U107" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V107" t="e">
+        <v/>
+      </c>
+      <c r="V107" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W107" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13863,13 +13864,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U108" t="e">
+      <c r="U108" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V108" t="e">
+        <v/>
+      </c>
+      <c r="V108" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W108" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13918,13 +13919,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U109" t="e">
+      <c r="U109" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V109" t="e">
+        <v/>
+      </c>
+      <c r="V109" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W109" s="10" t="str">
         <f t="shared" si="22"/>
@@ -13973,13 +13974,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U110" t="e">
+      <c r="U110" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V110" t="e">
+        <v/>
+      </c>
+      <c r="V110" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W110" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14028,13 +14029,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U111" t="e">
+      <c r="U111" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V111" t="e">
+        <v/>
+      </c>
+      <c r="V111" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W111" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14083,13 +14084,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U112" t="e">
+      <c r="U112" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V112" t="e">
+        <v/>
+      </c>
+      <c r="V112" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W112" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14138,13 +14139,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U113" t="e">
+      <c r="U113" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V113" t="e">
+        <v/>
+      </c>
+      <c r="V113" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W113" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14193,13 +14194,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U114" t="e">
+      <c r="U114" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V114" t="e">
+        <v/>
+      </c>
+      <c r="V114" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W114" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14248,13 +14249,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U115" t="e">
+      <c r="U115" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V115" t="e">
+        <v/>
+      </c>
+      <c r="V115" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W115" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14303,13 +14304,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U116" t="e">
+      <c r="U116" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V116" t="e">
+        <v/>
+      </c>
+      <c r="V116" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W116" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14358,13 +14359,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U117" t="e">
+      <c r="U117" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V117" t="e">
+        <v/>
+      </c>
+      <c r="V117" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W117" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14413,13 +14414,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U118" t="e">
+      <c r="U118" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V118" t="e">
+        <v/>
+      </c>
+      <c r="V118" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W118" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14468,13 +14469,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U119" t="e">
+      <c r="U119" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V119" t="e">
+        <v/>
+      </c>
+      <c r="V119" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W119" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14523,13 +14524,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U120" t="e">
+      <c r="U120" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V120" t="e">
+        <v/>
+      </c>
+      <c r="V120" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W120" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14578,13 +14579,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U121" t="e">
+      <c r="U121" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V121" t="e">
+        <v/>
+      </c>
+      <c r="V121" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W121" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14633,13 +14634,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U122" t="e">
+      <c r="U122" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V122" t="e">
+        <v/>
+      </c>
+      <c r="V122" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W122" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14688,13 +14689,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U123" t="e">
+      <c r="U123" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V123" t="e">
+        <v/>
+      </c>
+      <c r="V123" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W123" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14743,13 +14744,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U124" t="e">
+      <c r="U124" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V124" t="e">
+        <v/>
+      </c>
+      <c r="V124" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W124" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14798,13 +14799,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U125" t="e">
+      <c r="U125" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V125" t="e">
+        <v/>
+      </c>
+      <c r="V125" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W125" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14853,13 +14854,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U126" t="e">
+      <c r="U126" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V126" t="e">
+        <v/>
+      </c>
+      <c r="V126" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W126" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14908,13 +14909,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U127" t="e">
+      <c r="U127" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V127" t="e">
+        <v/>
+      </c>
+      <c r="V127" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W127" s="10" t="str">
         <f t="shared" si="22"/>
@@ -14963,13 +14964,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U128" t="e">
+      <c r="U128" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V128" t="e">
+        <v/>
+      </c>
+      <c r="V128" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W128" s="10" t="str">
         <f t="shared" si="22"/>
@@ -15018,13 +15019,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U129" t="e">
+      <c r="U129" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V129" t="e">
+        <v/>
+      </c>
+      <c r="V129" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W129" s="10" t="str">
         <f t="shared" si="22"/>
@@ -15073,13 +15074,13 @@
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="U130" t="e">
+      <c r="U130" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V130" t="e">
+        <v/>
+      </c>
+      <c r="V130" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W130" s="10" t="str">
         <f t="shared" si="22"/>
@@ -15128,13 +15129,13 @@
         <f t="shared" ref="T131:T194" si="29">IF(B131 = "", "", CONCATENATE(S131,B131, ".xlsx"))</f>
         <v/>
       </c>
-      <c r="U131" t="e">
-        <f t="shared" ref="U131:U194" si="30">LEFT(TRIM(CONCATENATE(IF(F131&gt;0,"Melbourne, ",""),IF(G131&gt;0,"Yarra, ",""),IF(H131&gt;0,"Darebin, ",""), IF(I131&gt;0, "Maribyrnong, ", ""), IF(J131&gt;0, "Knox, ", ""), IF(K131&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F131&gt;0,"Melbourne, ",""),IF(G131&gt;0,"Yarra, ",""),IF(H131&gt;0,"Darebin, ",""), IF(I131&gt;0, "Maribyrnong, ", ""), IF(J131&gt;0, "Knox, ", ""), IF(K131&gt;0, "Monash, ", ""))))-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V131" t="e">
+      <c r="U131" t="str">
+        <f t="shared" ref="U131:U194" si="30">IFERROR(LEFT(TRIM(CONCATENATE(IF(F131&gt;0,"Melbourne, ",""),IF(G131&gt;0,"Yarra, ",""),IF(H131&gt;0,"Darebin, ",""), IF(I131&gt;0, "Maribyrnong, ", ""), IF(J131&gt;0, "Knox, ", ""), IF(K131&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F131&gt;0,"Melbourne, ",""),IF(G131&gt;0,"Yarra, ",""),IF(H131&gt;0,"Darebin, ",""), IF(I131&gt;0, "Maribyrnong, ", ""), IF(J131&gt;0, "Knox, ", ""), IF(K131&gt;0, "Monash, ", ""))))-1),"")</f>
+        <v/>
+      </c>
+      <c r="V131" t="str">
         <f t="shared" ref="V131:V194" si="31">IFERROR(SUBSTITUTE(U131,","," and",LEN(U131)-LEN(SUBSTITUTE(U131,",",""))),U131)</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W131" s="10" t="str">
         <f t="shared" ref="W131:W194" si="32">IF(F131&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Melbourne.pdf", " ")</f>
@@ -15183,13 +15184,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U132" t="e">
+      <c r="U132" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V132" t="e">
+        <v/>
+      </c>
+      <c r="V132" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W132" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15238,13 +15239,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U133" t="e">
+      <c r="U133" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V133" t="e">
+        <v/>
+      </c>
+      <c r="V133" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W133" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15293,13 +15294,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U134" t="e">
+      <c r="U134" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V134" t="e">
+        <v/>
+      </c>
+      <c r="V134" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W134" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15348,13 +15349,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U135" t="e">
+      <c r="U135" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V135" t="e">
+        <v/>
+      </c>
+      <c r="V135" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W135" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15403,13 +15404,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U136" t="e">
+      <c r="U136" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V136" t="e">
+        <v/>
+      </c>
+      <c r="V136" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W136" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15458,13 +15459,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U137" t="e">
+      <c r="U137" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V137" t="e">
+        <v/>
+      </c>
+      <c r="V137" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W137" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15513,13 +15514,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U138" t="e">
+      <c r="U138" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V138" t="e">
+        <v/>
+      </c>
+      <c r="V138" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W138" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15568,13 +15569,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U139" t="e">
+      <c r="U139" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V139" t="e">
+        <v/>
+      </c>
+      <c r="V139" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W139" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15623,13 +15624,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U140" t="e">
+      <c r="U140" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V140" t="e">
+        <v/>
+      </c>
+      <c r="V140" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W140" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15678,13 +15679,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U141" t="e">
+      <c r="U141" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V141" t="e">
+        <v/>
+      </c>
+      <c r="V141" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W141" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15733,13 +15734,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U142" t="e">
+      <c r="U142" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V142" t="e">
+        <v/>
+      </c>
+      <c r="V142" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W142" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15788,13 +15789,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U143" t="e">
+      <c r="U143" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V143" t="e">
+        <v/>
+      </c>
+      <c r="V143" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W143" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15843,13 +15844,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U144" t="e">
+      <c r="U144" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V144" t="e">
+        <v/>
+      </c>
+      <c r="V144" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W144" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15898,13 +15899,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U145" t="e">
+      <c r="U145" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V145" t="e">
+        <v/>
+      </c>
+      <c r="V145" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W145" s="10" t="str">
         <f t="shared" si="32"/>
@@ -15953,13 +15954,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U146" t="e">
+      <c r="U146" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V146" t="e">
+        <v/>
+      </c>
+      <c r="V146" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W146" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16008,13 +16009,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U147" t="e">
+      <c r="U147" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V147" t="e">
+        <v/>
+      </c>
+      <c r="V147" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W147" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16063,13 +16064,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U148" t="e">
+      <c r="U148" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V148" t="e">
+        <v/>
+      </c>
+      <c r="V148" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W148" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16118,13 +16119,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U149" t="e">
+      <c r="U149" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V149" t="e">
+        <v/>
+      </c>
+      <c r="V149" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W149" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16173,13 +16174,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U150" t="e">
+      <c r="U150" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V150" t="e">
+        <v/>
+      </c>
+      <c r="V150" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W150" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16228,13 +16229,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U151" t="e">
+      <c r="U151" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V151" t="e">
+        <v/>
+      </c>
+      <c r="V151" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W151" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16283,13 +16284,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U152" t="e">
+      <c r="U152" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V152" t="e">
+        <v/>
+      </c>
+      <c r="V152" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W152" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16338,13 +16339,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U153" t="e">
+      <c r="U153" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V153" t="e">
+        <v/>
+      </c>
+      <c r="V153" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W153" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16393,13 +16394,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U154" t="e">
+      <c r="U154" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V154" t="e">
+        <v/>
+      </c>
+      <c r="V154" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W154" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16448,13 +16449,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U155" t="e">
+      <c r="U155" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V155" t="e">
+        <v/>
+      </c>
+      <c r="V155" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W155" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16503,13 +16504,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U156" t="e">
+      <c r="U156" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V156" t="e">
+        <v/>
+      </c>
+      <c r="V156" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W156" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16558,13 +16559,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U157" t="e">
+      <c r="U157" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V157" t="e">
+        <v/>
+      </c>
+      <c r="V157" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W157" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16613,13 +16614,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U158" t="e">
+      <c r="U158" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V158" t="e">
+        <v/>
+      </c>
+      <c r="V158" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W158" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16668,13 +16669,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U159" t="e">
+      <c r="U159" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V159" t="e">
+        <v/>
+      </c>
+      <c r="V159" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W159" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16723,13 +16724,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U160" t="e">
+      <c r="U160" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V160" t="e">
+        <v/>
+      </c>
+      <c r="V160" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W160" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16778,13 +16779,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U161" t="e">
+      <c r="U161" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V161" t="e">
+        <v/>
+      </c>
+      <c r="V161" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W161" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16833,13 +16834,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U162" t="e">
+      <c r="U162" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V162" t="e">
+        <v/>
+      </c>
+      <c r="V162" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W162" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16888,13 +16889,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U163" t="e">
+      <c r="U163" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V163" t="e">
+        <v/>
+      </c>
+      <c r="V163" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W163" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16943,13 +16944,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U164" t="e">
+      <c r="U164" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V164" t="e">
+        <v/>
+      </c>
+      <c r="V164" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W164" s="10" t="str">
         <f t="shared" si="32"/>
@@ -16998,13 +16999,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U165" t="e">
+      <c r="U165" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V165" t="e">
+        <v/>
+      </c>
+      <c r="V165" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W165" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17053,13 +17054,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U166" t="e">
+      <c r="U166" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V166" t="e">
+        <v/>
+      </c>
+      <c r="V166" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W166" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17108,13 +17109,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U167" t="e">
+      <c r="U167" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V167" t="e">
+        <v/>
+      </c>
+      <c r="V167" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W167" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17163,13 +17164,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U168" t="e">
+      <c r="U168" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V168" t="e">
+        <v/>
+      </c>
+      <c r="V168" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W168" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17218,13 +17219,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U169" t="e">
+      <c r="U169" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V169" t="e">
+        <v/>
+      </c>
+      <c r="V169" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W169" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17273,13 +17274,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U170" t="e">
+      <c r="U170" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V170" t="e">
+        <v/>
+      </c>
+      <c r="V170" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W170" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17328,13 +17329,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U171" t="e">
+      <c r="U171" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V171" t="e">
+        <v/>
+      </c>
+      <c r="V171" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W171" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17383,13 +17384,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U172" t="e">
+      <c r="U172" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V172" t="e">
+        <v/>
+      </c>
+      <c r="V172" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W172" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17438,13 +17439,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U173" t="e">
+      <c r="U173" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V173" t="e">
+        <v/>
+      </c>
+      <c r="V173" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W173" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17493,13 +17494,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U174" t="e">
+      <c r="U174" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V174" t="e">
+        <v/>
+      </c>
+      <c r="V174" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W174" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17548,13 +17549,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U175" t="e">
+      <c r="U175" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V175" t="e">
+        <v/>
+      </c>
+      <c r="V175" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W175" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17603,13 +17604,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U176" t="e">
+      <c r="U176" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V176" t="e">
+        <v/>
+      </c>
+      <c r="V176" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W176" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17658,13 +17659,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U177" t="e">
+      <c r="U177" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V177" t="e">
+        <v/>
+      </c>
+      <c r="V177" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W177" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17713,13 +17714,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U178" t="e">
+      <c r="U178" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V178" t="e">
+        <v/>
+      </c>
+      <c r="V178" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W178" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17768,13 +17769,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U179" t="e">
+      <c r="U179" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V179" t="e">
+        <v/>
+      </c>
+      <c r="V179" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W179" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17823,13 +17824,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U180" t="e">
+      <c r="U180" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V180" t="e">
+        <v/>
+      </c>
+      <c r="V180" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W180" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17878,13 +17879,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U181" t="e">
+      <c r="U181" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V181" t="e">
+        <v/>
+      </c>
+      <c r="V181" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W181" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17933,13 +17934,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U182" t="e">
+      <c r="U182" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V182" t="e">
+        <v/>
+      </c>
+      <c r="V182" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W182" s="10" t="str">
         <f t="shared" si="32"/>
@@ -17988,13 +17989,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U183" t="e">
+      <c r="U183" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V183" t="e">
+        <v/>
+      </c>
+      <c r="V183" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W183" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18043,13 +18044,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U184" t="e">
+      <c r="U184" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V184" t="e">
+        <v/>
+      </c>
+      <c r="V184" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W184" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18098,13 +18099,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U185" t="e">
+      <c r="U185" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V185" t="e">
+        <v/>
+      </c>
+      <c r="V185" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W185" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18153,13 +18154,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U186" t="e">
+      <c r="U186" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V186" t="e">
+        <v/>
+      </c>
+      <c r="V186" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W186" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18208,13 +18209,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U187" t="e">
+      <c r="U187" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V187" t="e">
+        <v/>
+      </c>
+      <c r="V187" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W187" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18263,13 +18264,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U188" t="e">
+      <c r="U188" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V188" t="e">
+        <v/>
+      </c>
+      <c r="V188" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W188" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18318,13 +18319,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U189" t="e">
+      <c r="U189" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V189" t="e">
+        <v/>
+      </c>
+      <c r="V189" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W189" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18373,13 +18374,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U190" t="e">
+      <c r="U190" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V190" t="e">
+        <v/>
+      </c>
+      <c r="V190" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W190" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18428,13 +18429,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U191" t="e">
+      <c r="U191" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V191" t="e">
+        <v/>
+      </c>
+      <c r="V191" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W191" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18483,13 +18484,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U192" t="e">
+      <c r="U192" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V192" t="e">
+        <v/>
+      </c>
+      <c r="V192" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W192" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18538,13 +18539,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U193" t="e">
+      <c r="U193" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V193" t="e">
+        <v/>
+      </c>
+      <c r="V193" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W193" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18593,13 +18594,13 @@
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="U194" t="e">
+      <c r="U194" t="str">
         <f t="shared" si="30"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V194" t="e">
+        <v/>
+      </c>
+      <c r="V194" t="str">
         <f t="shared" si="31"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W194" s="10" t="str">
         <f t="shared" si="32"/>
@@ -18648,13 +18649,13 @@
         <f t="shared" ref="T195:T258" si="39">IF(B195 = "", "", CONCATENATE(S195,B195, ".xlsx"))</f>
         <v/>
       </c>
-      <c r="U195" t="e">
-        <f t="shared" ref="U195:U258" si="40">LEFT(TRIM(CONCATENATE(IF(F195&gt;0,"Melbourne, ",""),IF(G195&gt;0,"Yarra, ",""),IF(H195&gt;0,"Darebin, ",""), IF(I195&gt;0, "Maribyrnong, ", ""), IF(J195&gt;0, "Knox, ", ""), IF(K195&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F195&gt;0,"Melbourne, ",""),IF(G195&gt;0,"Yarra, ",""),IF(H195&gt;0,"Darebin, ",""), IF(I195&gt;0, "Maribyrnong, ", ""), IF(J195&gt;0, "Knox, ", ""), IF(K195&gt;0, "Monash, ", ""))))-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V195" t="e">
+      <c r="U195" t="str">
+        <f t="shared" ref="U195:U258" si="40">IFERROR(LEFT(TRIM(CONCATENATE(IF(F195&gt;0,"Melbourne, ",""),IF(G195&gt;0,"Yarra, ",""),IF(H195&gt;0,"Darebin, ",""), IF(I195&gt;0, "Maribyrnong, ", ""), IF(J195&gt;0, "Knox, ", ""), IF(K195&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F195&gt;0,"Melbourne, ",""),IF(G195&gt;0,"Yarra, ",""),IF(H195&gt;0,"Darebin, ",""), IF(I195&gt;0, "Maribyrnong, ", ""), IF(J195&gt;0, "Knox, ", ""), IF(K195&gt;0, "Monash, ", ""))))-1),"")</f>
+        <v/>
+      </c>
+      <c r="V195" t="str">
         <f t="shared" ref="V195:V258" si="41">IFERROR(SUBSTITUTE(U195,","," and",LEN(U195)-LEN(SUBSTITUTE(U195,",",""))),U195)</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W195" s="10" t="str">
         <f t="shared" ref="W195:W258" si="42">IF(F195&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Melbourne.pdf", " ")</f>
@@ -18703,13 +18704,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U196" t="e">
+      <c r="U196" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V196" t="e">
+        <v/>
+      </c>
+      <c r="V196" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W196" s="10" t="str">
         <f t="shared" si="42"/>
@@ -18758,13 +18759,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U197" t="e">
+      <c r="U197" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V197" t="e">
+        <v/>
+      </c>
+      <c r="V197" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W197" s="10" t="str">
         <f t="shared" si="42"/>
@@ -18813,13 +18814,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U198" t="e">
+      <c r="U198" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V198" t="e">
+        <v/>
+      </c>
+      <c r="V198" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W198" s="10" t="str">
         <f t="shared" si="42"/>
@@ -18868,13 +18869,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U199" t="e">
+      <c r="U199" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V199" t="e">
+        <v/>
+      </c>
+      <c r="V199" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W199" s="10" t="str">
         <f t="shared" si="42"/>
@@ -18923,13 +18924,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U200" t="e">
+      <c r="U200" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V200" t="e">
+        <v/>
+      </c>
+      <c r="V200" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W200" s="10" t="str">
         <f t="shared" si="42"/>
@@ -18977,13 +18978,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U201" t="e">
+      <c r="U201" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V201" t="e">
+        <v/>
+      </c>
+      <c r="V201" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W201" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19031,13 +19032,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U202" t="e">
+      <c r="U202" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V202" t="e">
+        <v/>
+      </c>
+      <c r="V202" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W202" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19085,13 +19086,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U203" t="e">
+      <c r="U203" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V203" t="e">
+        <v/>
+      </c>
+      <c r="V203" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W203" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19139,13 +19140,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U204" t="e">
+      <c r="U204" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V204" t="e">
+        <v/>
+      </c>
+      <c r="V204" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W204" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19193,13 +19194,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U205" t="e">
+      <c r="U205" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V205" t="e">
+        <v/>
+      </c>
+      <c r="V205" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W205" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19247,13 +19248,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U206" t="e">
+      <c r="U206" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V206" t="e">
+        <v/>
+      </c>
+      <c r="V206" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W206" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19301,13 +19302,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U207" t="e">
+      <c r="U207" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V207" t="e">
+        <v/>
+      </c>
+      <c r="V207" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W207" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19355,13 +19356,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U208" t="e">
+      <c r="U208" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V208" t="e">
+        <v/>
+      </c>
+      <c r="V208" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W208" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19409,13 +19410,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U209" t="e">
+      <c r="U209" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V209" t="e">
+        <v/>
+      </c>
+      <c r="V209" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W209" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19463,13 +19464,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U210" t="e">
+      <c r="U210" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V210" t="e">
+        <v/>
+      </c>
+      <c r="V210" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W210" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19517,13 +19518,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U211" t="e">
+      <c r="U211" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V211" t="e">
+        <v/>
+      </c>
+      <c r="V211" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W211" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19571,13 +19572,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U212" t="e">
+      <c r="U212" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V212" t="e">
+        <v/>
+      </c>
+      <c r="V212" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W212" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19625,13 +19626,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U213" t="e">
+      <c r="U213" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V213" t="e">
+        <v/>
+      </c>
+      <c r="V213" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W213" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19679,13 +19680,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U214" t="e">
+      <c r="U214" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V214" t="e">
+        <v/>
+      </c>
+      <c r="V214" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W214" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19733,13 +19734,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U215" t="e">
+      <c r="U215" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V215" t="e">
+        <v/>
+      </c>
+      <c r="V215" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W215" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19787,13 +19788,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U216" t="e">
+      <c r="U216" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V216" t="e">
+        <v/>
+      </c>
+      <c r="V216" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W216" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19841,13 +19842,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U217" t="e">
+      <c r="U217" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V217" t="e">
+        <v/>
+      </c>
+      <c r="V217" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W217" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19895,13 +19896,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U218" t="e">
+      <c r="U218" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V218" t="e">
+        <v/>
+      </c>
+      <c r="V218" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W218" s="10" t="str">
         <f t="shared" si="42"/>
@@ -19949,13 +19950,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U219" t="e">
+      <c r="U219" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V219" t="e">
+        <v/>
+      </c>
+      <c r="V219" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W219" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20003,13 +20004,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U220" t="e">
+      <c r="U220" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V220" t="e">
+        <v/>
+      </c>
+      <c r="V220" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W220" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20057,13 +20058,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U221" t="e">
+      <c r="U221" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V221" t="e">
+        <v/>
+      </c>
+      <c r="V221" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W221" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20111,13 +20112,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U222" t="e">
+      <c r="U222" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V222" t="e">
+        <v/>
+      </c>
+      <c r="V222" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W222" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20165,13 +20166,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U223" t="e">
+      <c r="U223" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V223" t="e">
+        <v/>
+      </c>
+      <c r="V223" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W223" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20219,13 +20220,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U224" t="e">
+      <c r="U224" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V224" t="e">
+        <v/>
+      </c>
+      <c r="V224" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W224" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20273,13 +20274,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U225" t="e">
+      <c r="U225" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V225" t="e">
+        <v/>
+      </c>
+      <c r="V225" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W225" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20327,13 +20328,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U226" t="e">
+      <c r="U226" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V226" t="e">
+        <v/>
+      </c>
+      <c r="V226" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W226" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20381,13 +20382,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U227" t="e">
+      <c r="U227" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V227" t="e">
+        <v/>
+      </c>
+      <c r="V227" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W227" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20435,13 +20436,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U228" t="e">
+      <c r="U228" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V228" t="e">
+        <v/>
+      </c>
+      <c r="V228" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W228" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20489,13 +20490,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U229" t="e">
+      <c r="U229" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V229" t="e">
+        <v/>
+      </c>
+      <c r="V229" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W229" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20543,13 +20544,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U230" t="e">
+      <c r="U230" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V230" t="e">
+        <v/>
+      </c>
+      <c r="V230" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W230" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20597,13 +20598,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U231" t="e">
+      <c r="U231" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V231" t="e">
+        <v/>
+      </c>
+      <c r="V231" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W231" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20651,13 +20652,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U232" t="e">
+      <c r="U232" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V232" t="e">
+        <v/>
+      </c>
+      <c r="V232" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W232" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20705,13 +20706,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U233" t="e">
+      <c r="U233" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V233" t="e">
+        <v/>
+      </c>
+      <c r="V233" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W233" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20759,13 +20760,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U234" t="e">
+      <c r="U234" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V234" t="e">
+        <v/>
+      </c>
+      <c r="V234" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W234" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20813,13 +20814,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U235" t="e">
+      <c r="U235" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V235" t="e">
+        <v/>
+      </c>
+      <c r="V235" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W235" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20867,13 +20868,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U236" t="e">
+      <c r="U236" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V236" t="e">
+        <v/>
+      </c>
+      <c r="V236" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W236" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20921,13 +20922,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U237" t="e">
+      <c r="U237" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V237" t="e">
+        <v/>
+      </c>
+      <c r="V237" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W237" s="10" t="str">
         <f t="shared" si="42"/>
@@ -20975,13 +20976,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U238" t="e">
+      <c r="U238" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V238" t="e">
+        <v/>
+      </c>
+      <c r="V238" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W238" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21029,13 +21030,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U239" t="e">
+      <c r="U239" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V239" t="e">
+        <v/>
+      </c>
+      <c r="V239" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W239" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21083,13 +21084,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U240" t="e">
+      <c r="U240" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V240" t="e">
+        <v/>
+      </c>
+      <c r="V240" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W240" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21137,13 +21138,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U241" t="e">
+      <c r="U241" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V241" t="e">
+        <v/>
+      </c>
+      <c r="V241" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W241" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21191,13 +21192,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U242" t="e">
+      <c r="U242" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V242" t="e">
+        <v/>
+      </c>
+      <c r="V242" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W242" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21245,13 +21246,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U243" t="e">
+      <c r="U243" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V243" t="e">
+        <v/>
+      </c>
+      <c r="V243" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W243" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21299,13 +21300,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U244" t="e">
+      <c r="U244" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V244" t="e">
+        <v/>
+      </c>
+      <c r="V244" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W244" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21353,13 +21354,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U245" t="e">
+      <c r="U245" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V245" t="e">
+        <v/>
+      </c>
+      <c r="V245" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W245" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21407,13 +21408,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U246" t="e">
+      <c r="U246" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V246" t="e">
+        <v/>
+      </c>
+      <c r="V246" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W246" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21461,13 +21462,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U247" t="e">
+      <c r="U247" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V247" t="e">
+        <v/>
+      </c>
+      <c r="V247" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W247" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21515,13 +21516,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U248" t="e">
+      <c r="U248" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V248" t="e">
+        <v/>
+      </c>
+      <c r="V248" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W248" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21569,13 +21570,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U249" t="e">
+      <c r="U249" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V249" t="e">
+        <v/>
+      </c>
+      <c r="V249" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W249" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21623,13 +21624,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U250" t="e">
+      <c r="U250" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V250" t="e">
+        <v/>
+      </c>
+      <c r="V250" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W250" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21677,13 +21678,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U251" t="e">
+      <c r="U251" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V251" t="e">
+        <v/>
+      </c>
+      <c r="V251" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W251" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21731,13 +21732,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U252" t="e">
+      <c r="U252" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V252" t="e">
+        <v/>
+      </c>
+      <c r="V252" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W252" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21785,13 +21786,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U253" t="e">
+      <c r="U253" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V253" t="e">
+        <v/>
+      </c>
+      <c r="V253" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W253" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21839,13 +21840,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U254" t="e">
+      <c r="U254" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V254" t="e">
+        <v/>
+      </c>
+      <c r="V254" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W254" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21893,13 +21894,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U255" t="e">
+      <c r="U255" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V255" t="e">
+        <v/>
+      </c>
+      <c r="V255" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W255" s="10" t="str">
         <f t="shared" si="42"/>
@@ -21947,13 +21948,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U256" t="e">
+      <c r="U256" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V256" t="e">
+        <v/>
+      </c>
+      <c r="V256" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W256" s="10" t="str">
         <f t="shared" si="42"/>
@@ -22001,13 +22002,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U257" t="e">
+      <c r="U257" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V257" t="e">
+        <v/>
+      </c>
+      <c r="V257" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W257" s="10" t="str">
         <f t="shared" si="42"/>
@@ -22055,13 +22056,13 @@
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="U258" t="e">
+      <c r="U258" t="str">
         <f t="shared" si="40"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V258" t="e">
+        <v/>
+      </c>
+      <c r="V258" t="str">
         <f t="shared" si="41"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W258" s="10" t="str">
         <f t="shared" si="42"/>
@@ -22109,13 +22110,13 @@
         <f t="shared" ref="T259:T322" si="49">IF(B259 = "", "", CONCATENATE(S259,B259, ".xlsx"))</f>
         <v/>
       </c>
-      <c r="U259" t="e">
-        <f t="shared" ref="U259:U322" si="50">LEFT(TRIM(CONCATENATE(IF(F259&gt;0,"Melbourne, ",""),IF(G259&gt;0,"Yarra, ",""),IF(H259&gt;0,"Darebin, ",""), IF(I259&gt;0, "Maribyrnong, ", ""), IF(J259&gt;0, "Knox, ", ""), IF(K259&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F259&gt;0,"Melbourne, ",""),IF(G259&gt;0,"Yarra, ",""),IF(H259&gt;0,"Darebin, ",""), IF(I259&gt;0, "Maribyrnong, ", ""), IF(J259&gt;0, "Knox, ", ""), IF(K259&gt;0, "Monash, ", ""))))-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V259" t="e">
+      <c r="U259" t="str">
+        <f t="shared" ref="U259:U322" si="50">IFERROR(LEFT(TRIM(CONCATENATE(IF(F259&gt;0,"Melbourne, ",""),IF(G259&gt;0,"Yarra, ",""),IF(H259&gt;0,"Darebin, ",""), IF(I259&gt;0, "Maribyrnong, ", ""), IF(J259&gt;0, "Knox, ", ""), IF(K259&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F259&gt;0,"Melbourne, ",""),IF(G259&gt;0,"Yarra, ",""),IF(H259&gt;0,"Darebin, ",""), IF(I259&gt;0, "Maribyrnong, ", ""), IF(J259&gt;0, "Knox, ", ""), IF(K259&gt;0, "Monash, ", ""))))-1),"")</f>
+        <v/>
+      </c>
+      <c r="V259" t="str">
         <f t="shared" ref="V259:V322" si="51">IFERROR(SUBSTITUTE(U259,","," and",LEN(U259)-LEN(SUBSTITUTE(U259,",",""))),U259)</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W259" s="10" t="str">
         <f t="shared" ref="W259:W322" si="52">IF(F259&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Melbourne.pdf", " ")</f>
@@ -22163,13 +22164,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U260" t="e">
+      <c r="U260" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V260" t="e">
+        <v/>
+      </c>
+      <c r="V260" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W260" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22217,13 +22218,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U261" t="e">
+      <c r="U261" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V261" t="e">
+        <v/>
+      </c>
+      <c r="V261" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W261" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22271,13 +22272,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U262" t="e">
+      <c r="U262" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V262" t="e">
+        <v/>
+      </c>
+      <c r="V262" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W262" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22325,13 +22326,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U263" t="e">
+      <c r="U263" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V263" t="e">
+        <v/>
+      </c>
+      <c r="V263" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W263" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22379,13 +22380,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U264" t="e">
+      <c r="U264" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V264" t="e">
+        <v/>
+      </c>
+      <c r="V264" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W264" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22433,13 +22434,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U265" t="e">
+      <c r="U265" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V265" t="e">
+        <v/>
+      </c>
+      <c r="V265" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W265" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22487,13 +22488,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U266" t="e">
+      <c r="U266" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V266" t="e">
+        <v/>
+      </c>
+      <c r="V266" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W266" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22541,13 +22542,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U267" t="e">
+      <c r="U267" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V267" t="e">
+        <v/>
+      </c>
+      <c r="V267" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W267" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22595,13 +22596,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U268" t="e">
+      <c r="U268" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V268" t="e">
+        <v/>
+      </c>
+      <c r="V268" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W268" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22649,13 +22650,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U269" t="e">
+      <c r="U269" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V269" t="e">
+        <v/>
+      </c>
+      <c r="V269" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W269" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22703,13 +22704,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U270" t="e">
+      <c r="U270" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V270" t="e">
+        <v/>
+      </c>
+      <c r="V270" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W270" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22757,13 +22758,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U271" t="e">
+      <c r="U271" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V271" t="e">
+        <v/>
+      </c>
+      <c r="V271" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W271" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22811,13 +22812,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U272" t="e">
+      <c r="U272" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V272" t="e">
+        <v/>
+      </c>
+      <c r="V272" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W272" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22865,13 +22866,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U273" t="e">
+      <c r="U273" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V273" t="e">
+        <v/>
+      </c>
+      <c r="V273" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W273" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22919,13 +22920,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U274" t="e">
+      <c r="U274" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V274" t="e">
+        <v/>
+      </c>
+      <c r="V274" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W274" s="10" t="str">
         <f t="shared" si="52"/>
@@ -22973,13 +22974,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U275" t="e">
+      <c r="U275" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V275" t="e">
+        <v/>
+      </c>
+      <c r="V275" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W275" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23027,13 +23028,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U276" t="e">
+      <c r="U276" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V276" t="e">
+        <v/>
+      </c>
+      <c r="V276" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W276" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23081,13 +23082,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U277" t="e">
+      <c r="U277" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V277" t="e">
+        <v/>
+      </c>
+      <c r="V277" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W277" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23135,13 +23136,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U278" t="e">
+      <c r="U278" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V278" t="e">
+        <v/>
+      </c>
+      <c r="V278" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W278" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23189,13 +23190,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U279" t="e">
+      <c r="U279" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V279" t="e">
+        <v/>
+      </c>
+      <c r="V279" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W279" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23243,13 +23244,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U280" t="e">
+      <c r="U280" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V280" t="e">
+        <v/>
+      </c>
+      <c r="V280" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W280" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23297,13 +23298,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U281" t="e">
+      <c r="U281" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V281" t="e">
+        <v/>
+      </c>
+      <c r="V281" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W281" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23351,13 +23352,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U282" t="e">
+      <c r="U282" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V282" t="e">
+        <v/>
+      </c>
+      <c r="V282" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W282" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23405,13 +23406,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U283" t="e">
+      <c r="U283" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V283" t="e">
+        <v/>
+      </c>
+      <c r="V283" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W283" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23459,13 +23460,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U284" t="e">
+      <c r="U284" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V284" t="e">
+        <v/>
+      </c>
+      <c r="V284" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W284" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23513,13 +23514,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U285" t="e">
+      <c r="U285" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V285" t="e">
+        <v/>
+      </c>
+      <c r="V285" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W285" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23567,13 +23568,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U286" t="e">
+      <c r="U286" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V286" t="e">
+        <v/>
+      </c>
+      <c r="V286" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W286" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23621,13 +23622,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U287" t="e">
+      <c r="U287" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V287" t="e">
+        <v/>
+      </c>
+      <c r="V287" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W287" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23675,13 +23676,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U288" t="e">
+      <c r="U288" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V288" t="e">
+        <v/>
+      </c>
+      <c r="V288" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W288" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23729,13 +23730,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U289" t="e">
+      <c r="U289" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V289" t="e">
+        <v/>
+      </c>
+      <c r="V289" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W289" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23783,13 +23784,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U290" t="e">
+      <c r="U290" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V290" t="e">
+        <v/>
+      </c>
+      <c r="V290" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W290" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23837,13 +23838,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U291" t="e">
+      <c r="U291" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V291" t="e">
+        <v/>
+      </c>
+      <c r="V291" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W291" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23891,13 +23892,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U292" t="e">
+      <c r="U292" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V292" t="e">
+        <v/>
+      </c>
+      <c r="V292" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W292" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23945,13 +23946,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U293" t="e">
+      <c r="U293" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V293" t="e">
+        <v/>
+      </c>
+      <c r="V293" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W293" s="10" t="str">
         <f t="shared" si="52"/>
@@ -23999,13 +24000,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U294" t="e">
+      <c r="U294" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V294" t="e">
+        <v/>
+      </c>
+      <c r="V294" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W294" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24053,13 +24054,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U295" t="e">
+      <c r="U295" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V295" t="e">
+        <v/>
+      </c>
+      <c r="V295" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W295" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24107,13 +24108,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U296" t="e">
+      <c r="U296" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V296" t="e">
+        <v/>
+      </c>
+      <c r="V296" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W296" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24161,13 +24162,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U297" t="e">
+      <c r="U297" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V297" t="e">
+        <v/>
+      </c>
+      <c r="V297" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W297" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24215,13 +24216,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U298" t="e">
+      <c r="U298" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V298" t="e">
+        <v/>
+      </c>
+      <c r="V298" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W298" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24269,13 +24270,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U299" t="e">
+      <c r="U299" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V299" t="e">
+        <v/>
+      </c>
+      <c r="V299" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W299" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24323,13 +24324,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U300" t="e">
+      <c r="U300" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V300" t="e">
+        <v/>
+      </c>
+      <c r="V300" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W300" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24377,13 +24378,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U301" t="e">
+      <c r="U301" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V301" t="e">
+        <v/>
+      </c>
+      <c r="V301" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W301" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24431,13 +24432,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U302" t="e">
+      <c r="U302" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V302" t="e">
+        <v/>
+      </c>
+      <c r="V302" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W302" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24485,13 +24486,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U303" t="e">
+      <c r="U303" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V303" t="e">
+        <v/>
+      </c>
+      <c r="V303" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W303" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24539,13 +24540,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U304" t="e">
+      <c r="U304" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V304" t="e">
+        <v/>
+      </c>
+      <c r="V304" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W304" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24593,13 +24594,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U305" t="e">
+      <c r="U305" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V305" t="e">
+        <v/>
+      </c>
+      <c r="V305" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W305" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24647,13 +24648,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U306" t="e">
+      <c r="U306" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V306" t="e">
+        <v/>
+      </c>
+      <c r="V306" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W306" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24701,13 +24702,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U307" t="e">
+      <c r="U307" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V307" t="e">
+        <v/>
+      </c>
+      <c r="V307" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W307" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24755,13 +24756,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U308" t="e">
+      <c r="U308" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V308" t="e">
+        <v/>
+      </c>
+      <c r="V308" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W308" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24809,13 +24810,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U309" t="e">
+      <c r="U309" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V309" t="e">
+        <v/>
+      </c>
+      <c r="V309" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W309" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24863,13 +24864,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U310" t="e">
+      <c r="U310" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V310" t="e">
+        <v/>
+      </c>
+      <c r="V310" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W310" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24917,13 +24918,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U311" t="e">
+      <c r="U311" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V311" t="e">
+        <v/>
+      </c>
+      <c r="V311" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W311" s="10" t="str">
         <f t="shared" si="52"/>
@@ -24971,13 +24972,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U312" t="e">
+      <c r="U312" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V312" t="e">
+        <v/>
+      </c>
+      <c r="V312" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W312" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25025,13 +25026,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U313" t="e">
+      <c r="U313" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V313" t="e">
+        <v/>
+      </c>
+      <c r="V313" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W313" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25079,13 +25080,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U314" t="e">
+      <c r="U314" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V314" t="e">
+        <v/>
+      </c>
+      <c r="V314" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W314" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25133,13 +25134,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U315" t="e">
+      <c r="U315" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V315" t="e">
+        <v/>
+      </c>
+      <c r="V315" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W315" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25187,13 +25188,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U316" t="e">
+      <c r="U316" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V316" t="e">
+        <v/>
+      </c>
+      <c r="V316" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W316" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25241,13 +25242,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U317" t="e">
+      <c r="U317" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V317" t="e">
+        <v/>
+      </c>
+      <c r="V317" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W317" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25295,13 +25296,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U318" t="e">
+      <c r="U318" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V318" t="e">
+        <v/>
+      </c>
+      <c r="V318" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W318" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25349,13 +25350,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U319" t="e">
+      <c r="U319" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V319" t="e">
+        <v/>
+      </c>
+      <c r="V319" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W319" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25403,13 +25404,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U320" t="e">
+      <c r="U320" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V320" t="e">
+        <v/>
+      </c>
+      <c r="V320" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W320" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25457,13 +25458,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U321" t="e">
+      <c r="U321" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V321" t="e">
+        <v/>
+      </c>
+      <c r="V321" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W321" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25511,13 +25512,13 @@
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="U322" t="e">
+      <c r="U322" t="str">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V322" t="e">
+        <v/>
+      </c>
+      <c r="V322" t="str">
         <f t="shared" si="51"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W322" s="10" t="str">
         <f t="shared" si="52"/>
@@ -25565,13 +25566,13 @@
         <f t="shared" ref="T323:T386" si="59">IF(B323 = "", "", CONCATENATE(S323,B323, ".xlsx"))</f>
         <v/>
       </c>
-      <c r="U323" t="e">
-        <f t="shared" ref="U323:U386" si="60">LEFT(TRIM(CONCATENATE(IF(F323&gt;0,"Melbourne, ",""),IF(G323&gt;0,"Yarra, ",""),IF(H323&gt;0,"Darebin, ",""), IF(I323&gt;0, "Maribyrnong, ", ""), IF(J323&gt;0, "Knox, ", ""), IF(K323&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F323&gt;0,"Melbourne, ",""),IF(G323&gt;0,"Yarra, ",""),IF(H323&gt;0,"Darebin, ",""), IF(I323&gt;0, "Maribyrnong, ", ""), IF(J323&gt;0, "Knox, ", ""), IF(K323&gt;0, "Monash, ", ""))))-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V323" t="e">
+      <c r="U323" t="str">
+        <f t="shared" ref="U323:U386" si="60">IFERROR(LEFT(TRIM(CONCATENATE(IF(F323&gt;0,"Melbourne, ",""),IF(G323&gt;0,"Yarra, ",""),IF(H323&gt;0,"Darebin, ",""), IF(I323&gt;0, "Maribyrnong, ", ""), IF(J323&gt;0, "Knox, ", ""), IF(K323&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F323&gt;0,"Melbourne, ",""),IF(G323&gt;0,"Yarra, ",""),IF(H323&gt;0,"Darebin, ",""), IF(I323&gt;0, "Maribyrnong, ", ""), IF(J323&gt;0, "Knox, ", ""), IF(K323&gt;0, "Monash, ", ""))))-1),"")</f>
+        <v/>
+      </c>
+      <c r="V323" t="str">
         <f t="shared" ref="V323:V386" si="61">IFERROR(SUBSTITUTE(U323,","," and",LEN(U323)-LEN(SUBSTITUTE(U323,",",""))),U323)</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W323" s="10" t="str">
         <f t="shared" ref="W323:W386" si="62">IF(F323&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Melbourne.pdf", " ")</f>
@@ -25619,13 +25620,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U324" t="e">
+      <c r="U324" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V324" t="e">
+        <v/>
+      </c>
+      <c r="V324" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W324" s="10" t="str">
         <f t="shared" si="62"/>
@@ -25673,13 +25674,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U325" t="e">
+      <c r="U325" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V325" t="e">
+        <v/>
+      </c>
+      <c r="V325" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W325" s="10" t="str">
         <f t="shared" si="62"/>
@@ -25727,13 +25728,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U326" t="e">
+      <c r="U326" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V326" t="e">
+        <v/>
+      </c>
+      <c r="V326" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W326" s="10" t="str">
         <f t="shared" si="62"/>
@@ -25781,13 +25782,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U327" t="e">
+      <c r="U327" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V327" t="e">
+        <v/>
+      </c>
+      <c r="V327" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W327" s="10" t="str">
         <f t="shared" si="62"/>
@@ -25835,13 +25836,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U328" t="e">
+      <c r="U328" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V328" t="e">
+        <v/>
+      </c>
+      <c r="V328" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W328" s="10" t="str">
         <f t="shared" si="62"/>
@@ -25889,13 +25890,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U329" t="e">
+      <c r="U329" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V329" t="e">
+        <v/>
+      </c>
+      <c r="V329" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W329" s="10" t="str">
         <f t="shared" si="62"/>
@@ -25943,13 +25944,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U330" t="e">
+      <c r="U330" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V330" t="e">
+        <v/>
+      </c>
+      <c r="V330" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W330" s="10" t="str">
         <f t="shared" si="62"/>
@@ -25997,13 +25998,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U331" t="e">
+      <c r="U331" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V331" t="e">
+        <v/>
+      </c>
+      <c r="V331" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W331" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26051,13 +26052,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U332" t="e">
+      <c r="U332" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V332" t="e">
+        <v/>
+      </c>
+      <c r="V332" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W332" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26105,13 +26106,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U333" t="e">
+      <c r="U333" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V333" t="e">
+        <v/>
+      </c>
+      <c r="V333" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W333" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26159,13 +26160,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U334" t="e">
+      <c r="U334" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V334" t="e">
+        <v/>
+      </c>
+      <c r="V334" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W334" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26213,13 +26214,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U335" t="e">
+      <c r="U335" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V335" t="e">
+        <v/>
+      </c>
+      <c r="V335" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W335" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26267,13 +26268,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U336" t="e">
+      <c r="U336" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V336" t="e">
+        <v/>
+      </c>
+      <c r="V336" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W336" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26321,13 +26322,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U337" t="e">
+      <c r="U337" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V337" t="e">
+        <v/>
+      </c>
+      <c r="V337" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W337" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26375,13 +26376,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U338" t="e">
+      <c r="U338" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V338" t="e">
+        <v/>
+      </c>
+      <c r="V338" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W338" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26429,13 +26430,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U339" t="e">
+      <c r="U339" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V339" t="e">
+        <v/>
+      </c>
+      <c r="V339" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W339" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26483,13 +26484,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U340" t="e">
+      <c r="U340" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V340" t="e">
+        <v/>
+      </c>
+      <c r="V340" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W340" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26537,13 +26538,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U341" t="e">
+      <c r="U341" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V341" t="e">
+        <v/>
+      </c>
+      <c r="V341" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W341" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26591,13 +26592,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U342" t="e">
+      <c r="U342" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V342" t="e">
+        <v/>
+      </c>
+      <c r="V342" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W342" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26645,13 +26646,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U343" t="e">
+      <c r="U343" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V343" t="e">
+        <v/>
+      </c>
+      <c r="V343" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W343" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26699,13 +26700,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U344" t="e">
+      <c r="U344" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V344" t="e">
+        <v/>
+      </c>
+      <c r="V344" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W344" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26753,13 +26754,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U345" t="e">
+      <c r="U345" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V345" t="e">
+        <v/>
+      </c>
+      <c r="V345" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W345" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26807,13 +26808,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U346" t="e">
+      <c r="U346" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V346" t="e">
+        <v/>
+      </c>
+      <c r="V346" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W346" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26861,13 +26862,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U347" t="e">
+      <c r="U347" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V347" t="e">
+        <v/>
+      </c>
+      <c r="V347" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W347" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26915,13 +26916,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U348" t="e">
+      <c r="U348" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V348" t="e">
+        <v/>
+      </c>
+      <c r="V348" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W348" s="10" t="str">
         <f t="shared" si="62"/>
@@ -26969,13 +26970,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U349" t="e">
+      <c r="U349" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V349" t="e">
+        <v/>
+      </c>
+      <c r="V349" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W349" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27023,13 +27024,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U350" t="e">
+      <c r="U350" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V350" t="e">
+        <v/>
+      </c>
+      <c r="V350" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W350" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27077,13 +27078,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U351" t="e">
+      <c r="U351" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V351" t="e">
+        <v/>
+      </c>
+      <c r="V351" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W351" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27131,13 +27132,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U352" t="e">
+      <c r="U352" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V352" t="e">
+        <v/>
+      </c>
+      <c r="V352" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W352" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27185,13 +27186,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U353" t="e">
+      <c r="U353" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V353" t="e">
+        <v/>
+      </c>
+      <c r="V353" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W353" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27239,13 +27240,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U354" t="e">
+      <c r="U354" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V354" t="e">
+        <v/>
+      </c>
+      <c r="V354" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W354" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27293,13 +27294,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U355" t="e">
+      <c r="U355" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V355" t="e">
+        <v/>
+      </c>
+      <c r="V355" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W355" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27347,13 +27348,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U356" t="e">
+      <c r="U356" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V356" t="e">
+        <v/>
+      </c>
+      <c r="V356" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W356" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27401,13 +27402,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U357" t="e">
+      <c r="U357" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V357" t="e">
+        <v/>
+      </c>
+      <c r="V357" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W357" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27455,13 +27456,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U358" t="e">
+      <c r="U358" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V358" t="e">
+        <v/>
+      </c>
+      <c r="V358" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W358" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27509,13 +27510,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U359" t="e">
+      <c r="U359" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V359" t="e">
+        <v/>
+      </c>
+      <c r="V359" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W359" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27563,13 +27564,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U360" t="e">
+      <c r="U360" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V360" t="e">
+        <v/>
+      </c>
+      <c r="V360" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W360" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27617,13 +27618,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U361" t="e">
+      <c r="U361" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V361" t="e">
+        <v/>
+      </c>
+      <c r="V361" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W361" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27671,13 +27672,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U362" t="e">
+      <c r="U362" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V362" t="e">
+        <v/>
+      </c>
+      <c r="V362" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W362" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27725,13 +27726,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U363" t="e">
+      <c r="U363" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V363" t="e">
+        <v/>
+      </c>
+      <c r="V363" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W363" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27779,13 +27780,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U364" t="e">
+      <c r="U364" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V364" t="e">
+        <v/>
+      </c>
+      <c r="V364" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W364" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27833,13 +27834,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U365" t="e">
+      <c r="U365" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V365" t="e">
+        <v/>
+      </c>
+      <c r="V365" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W365" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27887,13 +27888,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U366" t="e">
+      <c r="U366" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V366" t="e">
+        <v/>
+      </c>
+      <c r="V366" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W366" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27941,13 +27942,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U367" t="e">
+      <c r="U367" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V367" t="e">
+        <v/>
+      </c>
+      <c r="V367" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W367" s="10" t="str">
         <f t="shared" si="62"/>
@@ -27995,13 +27996,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U368" t="e">
+      <c r="U368" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V368" t="e">
+        <v/>
+      </c>
+      <c r="V368" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W368" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28049,13 +28050,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U369" t="e">
+      <c r="U369" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V369" t="e">
+        <v/>
+      </c>
+      <c r="V369" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W369" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28103,13 +28104,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U370" t="e">
+      <c r="U370" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V370" t="e">
+        <v/>
+      </c>
+      <c r="V370" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W370" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28157,13 +28158,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U371" t="e">
+      <c r="U371" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V371" t="e">
+        <v/>
+      </c>
+      <c r="V371" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W371" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28211,13 +28212,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U372" t="e">
+      <c r="U372" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V372" t="e">
+        <v/>
+      </c>
+      <c r="V372" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W372" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28265,13 +28266,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U373" t="e">
+      <c r="U373" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V373" t="e">
+        <v/>
+      </c>
+      <c r="V373" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W373" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28319,13 +28320,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U374" t="e">
+      <c r="U374" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V374" t="e">
+        <v/>
+      </c>
+      <c r="V374" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W374" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28373,13 +28374,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U375" t="e">
+      <c r="U375" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V375" t="e">
+        <v/>
+      </c>
+      <c r="V375" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W375" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28427,13 +28428,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U376" t="e">
+      <c r="U376" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V376" t="e">
+        <v/>
+      </c>
+      <c r="V376" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W376" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28481,13 +28482,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U377" t="e">
+      <c r="U377" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V377" t="e">
+        <v/>
+      </c>
+      <c r="V377" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W377" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28535,13 +28536,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U378" t="e">
+      <c r="U378" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V378" t="e">
+        <v/>
+      </c>
+      <c r="V378" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W378" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28589,13 +28590,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U379" t="e">
+      <c r="U379" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V379" t="e">
+        <v/>
+      </c>
+      <c r="V379" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W379" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28643,13 +28644,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U380" t="e">
+      <c r="U380" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V380" t="e">
+        <v/>
+      </c>
+      <c r="V380" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W380" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28697,13 +28698,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U381" t="e">
+      <c r="U381" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V381" t="e">
+        <v/>
+      </c>
+      <c r="V381" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W381" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28751,13 +28752,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U382" t="e">
+      <c r="U382" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V382" t="e">
+        <v/>
+      </c>
+      <c r="V382" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W382" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28805,13 +28806,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U383" t="e">
+      <c r="U383" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V383" t="e">
+        <v/>
+      </c>
+      <c r="V383" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W383" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28859,13 +28860,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U384" t="e">
+      <c r="U384" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V384" t="e">
+        <v/>
+      </c>
+      <c r="V384" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W384" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28913,13 +28914,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U385" t="e">
+      <c r="U385" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V385" t="e">
+        <v/>
+      </c>
+      <c r="V385" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W385" s="10" t="str">
         <f t="shared" si="62"/>
@@ -28967,13 +28968,13 @@
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="U386" t="e">
+      <c r="U386" t="str">
         <f t="shared" si="60"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V386" t="e">
+        <v/>
+      </c>
+      <c r="V386" t="str">
         <f t="shared" si="61"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W386" s="10" t="str">
         <f t="shared" si="62"/>
@@ -29021,13 +29022,13 @@
         <f t="shared" ref="T387:T450" si="69">IF(B387 = "", "", CONCATENATE(S387,B387, ".xlsx"))</f>
         <v/>
       </c>
-      <c r="U387" t="e">
-        <f t="shared" ref="U387:U450" si="70">LEFT(TRIM(CONCATENATE(IF(F387&gt;0,"Melbourne, ",""),IF(G387&gt;0,"Yarra, ",""),IF(H387&gt;0,"Darebin, ",""), IF(I387&gt;0, "Maribyrnong, ", ""), IF(J387&gt;0, "Knox, ", ""), IF(K387&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F387&gt;0,"Melbourne, ",""),IF(G387&gt;0,"Yarra, ",""),IF(H387&gt;0,"Darebin, ",""), IF(I387&gt;0, "Maribyrnong, ", ""), IF(J387&gt;0, "Knox, ", ""), IF(K387&gt;0, "Monash, ", ""))))-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V387" t="e">
+      <c r="U387" t="str">
+        <f t="shared" ref="U387:U450" si="70">IFERROR(LEFT(TRIM(CONCATENATE(IF(F387&gt;0,"Melbourne, ",""),IF(G387&gt;0,"Yarra, ",""),IF(H387&gt;0,"Darebin, ",""), IF(I387&gt;0, "Maribyrnong, ", ""), IF(J387&gt;0, "Knox, ", ""), IF(K387&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F387&gt;0,"Melbourne, ",""),IF(G387&gt;0,"Yarra, ",""),IF(H387&gt;0,"Darebin, ",""), IF(I387&gt;0, "Maribyrnong, ", ""), IF(J387&gt;0, "Knox, ", ""), IF(K387&gt;0, "Monash, ", ""))))-1),"")</f>
+        <v/>
+      </c>
+      <c r="V387" t="str">
         <f t="shared" ref="V387:V450" si="71">IFERROR(SUBSTITUTE(U387,","," and",LEN(U387)-LEN(SUBSTITUTE(U387,",",""))),U387)</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W387" s="10" t="str">
         <f t="shared" ref="W387:W450" si="72">IF(F387&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Melbourne.pdf", " ")</f>
@@ -29075,13 +29076,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U388" t="e">
+      <c r="U388" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V388" t="e">
+        <v/>
+      </c>
+      <c r="V388" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W388" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29129,13 +29130,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U389" t="e">
+      <c r="U389" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V389" t="e">
+        <v/>
+      </c>
+      <c r="V389" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W389" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29183,13 +29184,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U390" t="e">
+      <c r="U390" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V390" t="e">
+        <v/>
+      </c>
+      <c r="V390" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W390" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29237,13 +29238,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U391" t="e">
+      <c r="U391" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V391" t="e">
+        <v/>
+      </c>
+      <c r="V391" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W391" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29291,13 +29292,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U392" t="e">
+      <c r="U392" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V392" t="e">
+        <v/>
+      </c>
+      <c r="V392" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W392" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29345,13 +29346,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U393" t="e">
+      <c r="U393" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V393" t="e">
+        <v/>
+      </c>
+      <c r="V393" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W393" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29399,13 +29400,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U394" t="e">
+      <c r="U394" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V394" t="e">
+        <v/>
+      </c>
+      <c r="V394" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W394" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29453,13 +29454,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U395" t="e">
+      <c r="U395" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V395" t="e">
+        <v/>
+      </c>
+      <c r="V395" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W395" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29507,13 +29508,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U396" t="e">
+      <c r="U396" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V396" t="e">
+        <v/>
+      </c>
+      <c r="V396" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W396" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29561,13 +29562,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U397" t="e">
+      <c r="U397" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V397" t="e">
+        <v/>
+      </c>
+      <c r="V397" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W397" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29615,13 +29616,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U398" t="e">
+      <c r="U398" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V398" t="e">
+        <v/>
+      </c>
+      <c r="V398" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W398" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29669,13 +29670,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U399" t="e">
+      <c r="U399" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V399" t="e">
+        <v/>
+      </c>
+      <c r="V399" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W399" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29723,13 +29724,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U400" t="e">
+      <c r="U400" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V400" t="e">
+        <v/>
+      </c>
+      <c r="V400" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W400" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29777,13 +29778,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U401" t="e">
+      <c r="U401" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V401" t="e">
+        <v/>
+      </c>
+      <c r="V401" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W401" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29831,13 +29832,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U402" t="e">
+      <c r="U402" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V402" t="e">
+        <v/>
+      </c>
+      <c r="V402" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W402" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29885,13 +29886,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U403" t="e">
+      <c r="U403" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V403" t="e">
+        <v/>
+      </c>
+      <c r="V403" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W403" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29939,13 +29940,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U404" t="e">
+      <c r="U404" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V404" t="e">
+        <v/>
+      </c>
+      <c r="V404" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W404" s="10" t="str">
         <f t="shared" si="72"/>
@@ -29993,13 +29994,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U405" t="e">
+      <c r="U405" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V405" t="e">
+        <v/>
+      </c>
+      <c r="V405" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W405" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30047,13 +30048,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U406" t="e">
+      <c r="U406" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V406" t="e">
+        <v/>
+      </c>
+      <c r="V406" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W406" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30101,13 +30102,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U407" t="e">
+      <c r="U407" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V407" t="e">
+        <v/>
+      </c>
+      <c r="V407" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W407" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30155,13 +30156,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U408" t="e">
+      <c r="U408" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V408" t="e">
+        <v/>
+      </c>
+      <c r="V408" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W408" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30209,13 +30210,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U409" t="e">
+      <c r="U409" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V409" t="e">
+        <v/>
+      </c>
+      <c r="V409" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W409" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30263,13 +30264,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U410" t="e">
+      <c r="U410" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V410" t="e">
+        <v/>
+      </c>
+      <c r="V410" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W410" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30317,13 +30318,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U411" t="e">
+      <c r="U411" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V411" t="e">
+        <v/>
+      </c>
+      <c r="V411" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W411" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30371,13 +30372,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U412" t="e">
+      <c r="U412" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V412" t="e">
+        <v/>
+      </c>
+      <c r="V412" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W412" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30425,13 +30426,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U413" t="e">
+      <c r="U413" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V413" t="e">
+        <v/>
+      </c>
+      <c r="V413" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W413" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30479,13 +30480,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U414" t="e">
+      <c r="U414" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V414" t="e">
+        <v/>
+      </c>
+      <c r="V414" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W414" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30533,13 +30534,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U415" t="e">
+      <c r="U415" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V415" t="e">
+        <v/>
+      </c>
+      <c r="V415" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W415" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30587,13 +30588,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U416" t="e">
+      <c r="U416" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V416" t="e">
+        <v/>
+      </c>
+      <c r="V416" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W416" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30641,13 +30642,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U417" t="e">
+      <c r="U417" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V417" t="e">
+        <v/>
+      </c>
+      <c r="V417" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W417" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30695,13 +30696,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U418" t="e">
+      <c r="U418" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V418" t="e">
+        <v/>
+      </c>
+      <c r="V418" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W418" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30749,13 +30750,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U419" t="e">
+      <c r="U419" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V419" t="e">
+        <v/>
+      </c>
+      <c r="V419" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W419" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30803,13 +30804,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U420" t="e">
+      <c r="U420" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V420" t="e">
+        <v/>
+      </c>
+      <c r="V420" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W420" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30857,13 +30858,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U421" t="e">
+      <c r="U421" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V421" t="e">
+        <v/>
+      </c>
+      <c r="V421" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W421" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30911,13 +30912,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U422" t="e">
+      <c r="U422" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V422" t="e">
+        <v/>
+      </c>
+      <c r="V422" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W422" s="10" t="str">
         <f t="shared" si="72"/>
@@ -30965,13 +30966,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U423" t="e">
+      <c r="U423" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V423" t="e">
+        <v/>
+      </c>
+      <c r="V423" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W423" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31019,13 +31020,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U424" t="e">
+      <c r="U424" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V424" t="e">
+        <v/>
+      </c>
+      <c r="V424" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W424" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31073,13 +31074,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U425" t="e">
+      <c r="U425" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V425" t="e">
+        <v/>
+      </c>
+      <c r="V425" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W425" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31127,13 +31128,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U426" t="e">
+      <c r="U426" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V426" t="e">
+        <v/>
+      </c>
+      <c r="V426" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W426" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31181,13 +31182,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U427" t="e">
+      <c r="U427" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V427" t="e">
+        <v/>
+      </c>
+      <c r="V427" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W427" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31235,13 +31236,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U428" t="e">
+      <c r="U428" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V428" t="e">
+        <v/>
+      </c>
+      <c r="V428" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W428" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31289,13 +31290,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U429" t="e">
+      <c r="U429" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V429" t="e">
+        <v/>
+      </c>
+      <c r="V429" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W429" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31343,13 +31344,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U430" t="e">
+      <c r="U430" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V430" t="e">
+        <v/>
+      </c>
+      <c r="V430" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W430" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31397,13 +31398,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U431" t="e">
+      <c r="U431" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V431" t="e">
+        <v/>
+      </c>
+      <c r="V431" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W431" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31451,13 +31452,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U432" t="e">
+      <c r="U432" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V432" t="e">
+        <v/>
+      </c>
+      <c r="V432" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W432" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31505,13 +31506,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U433" t="e">
+      <c r="U433" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V433" t="e">
+        <v/>
+      </c>
+      <c r="V433" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W433" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31559,13 +31560,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U434" t="e">
+      <c r="U434" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V434" t="e">
+        <v/>
+      </c>
+      <c r="V434" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W434" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31613,13 +31614,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U435" t="e">
+      <c r="U435" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V435" t="e">
+        <v/>
+      </c>
+      <c r="V435" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W435" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31667,13 +31668,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U436" t="e">
+      <c r="U436" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V436" t="e">
+        <v/>
+      </c>
+      <c r="V436" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W436" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31721,13 +31722,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U437" t="e">
+      <c r="U437" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V437" t="e">
+        <v/>
+      </c>
+      <c r="V437" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W437" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31775,13 +31776,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U438" t="e">
+      <c r="U438" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V438" t="e">
+        <v/>
+      </c>
+      <c r="V438" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W438" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31829,13 +31830,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U439" t="e">
+      <c r="U439" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V439" t="e">
+        <v/>
+      </c>
+      <c r="V439" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W439" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31883,13 +31884,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U440" t="e">
+      <c r="U440" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V440" t="e">
+        <v/>
+      </c>
+      <c r="V440" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W440" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31937,13 +31938,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U441" t="e">
+      <c r="U441" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V441" t="e">
+        <v/>
+      </c>
+      <c r="V441" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W441" s="10" t="str">
         <f t="shared" si="72"/>
@@ -31991,13 +31992,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U442" t="e">
+      <c r="U442" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V442" t="e">
+        <v/>
+      </c>
+      <c r="V442" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W442" s="10" t="str">
         <f t="shared" si="72"/>
@@ -32045,13 +32046,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U443" t="e">
+      <c r="U443" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V443" t="e">
+        <v/>
+      </c>
+      <c r="V443" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W443" s="10" t="str">
         <f t="shared" si="72"/>
@@ -32099,13 +32100,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U444" t="e">
+      <c r="U444" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V444" t="e">
+        <v/>
+      </c>
+      <c r="V444" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W444" s="10" t="str">
         <f t="shared" si="72"/>
@@ -32153,13 +32154,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U445" t="e">
+      <c r="U445" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V445" t="e">
+        <v/>
+      </c>
+      <c r="V445" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W445" s="10" t="str">
         <f t="shared" si="72"/>
@@ -32207,13 +32208,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U446" t="e">
+      <c r="U446" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V446" t="e">
+        <v/>
+      </c>
+      <c r="V446" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W446" s="10" t="str">
         <f t="shared" si="72"/>
@@ -32261,13 +32262,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U447" t="e">
+      <c r="U447" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V447" t="e">
+        <v/>
+      </c>
+      <c r="V447" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W447" s="10" t="str">
         <f t="shared" si="72"/>
@@ -32315,13 +32316,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U448" t="e">
+      <c r="U448" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V448" t="e">
+        <v/>
+      </c>
+      <c r="V448" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W448" s="10" t="str">
         <f t="shared" si="72"/>
@@ -32369,13 +32370,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U449" t="e">
+      <c r="U449" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V449" t="e">
+        <v/>
+      </c>
+      <c r="V449" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W449" s="10" t="str">
         <f t="shared" si="72"/>
@@ -32423,13 +32424,13 @@
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="U450" t="e">
+      <c r="U450" t="str">
         <f t="shared" si="70"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V450" t="e">
+        <v/>
+      </c>
+      <c r="V450" t="str">
         <f t="shared" si="71"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W450" s="10" t="str">
         <f t="shared" si="72"/>
@@ -32477,13 +32478,13 @@
         <f t="shared" ref="T451:T500" si="79">IF(B451 = "", "", CONCATENATE(S451,B451, ".xlsx"))</f>
         <v/>
       </c>
-      <c r="U451" t="e">
-        <f t="shared" ref="U451:U500" si="80">LEFT(TRIM(CONCATENATE(IF(F451&gt;0,"Melbourne, ",""),IF(G451&gt;0,"Yarra, ",""),IF(H451&gt;0,"Darebin, ",""), IF(I451&gt;0, "Maribyrnong, ", ""), IF(J451&gt;0, "Knox, ", ""), IF(K451&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F451&gt;0,"Melbourne, ",""),IF(G451&gt;0,"Yarra, ",""),IF(H451&gt;0,"Darebin, ",""), IF(I451&gt;0, "Maribyrnong, ", ""), IF(J451&gt;0, "Knox, ", ""), IF(K451&gt;0, "Monash, ", ""))))-1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V451" t="e">
+      <c r="U451" t="str">
+        <f t="shared" ref="U451:U500" si="80">IFERROR(LEFT(TRIM(CONCATENATE(IF(F451&gt;0,"Melbourne, ",""),IF(G451&gt;0,"Yarra, ",""),IF(H451&gt;0,"Darebin, ",""), IF(I451&gt;0, "Maribyrnong, ", ""), IF(J451&gt;0, "Knox, ", ""), IF(K451&gt;0, "Monash, ", ""))),LEN(TRIM(CONCATENATE(IF(F451&gt;0,"Melbourne, ",""),IF(G451&gt;0,"Yarra, ",""),IF(H451&gt;0,"Darebin, ",""), IF(I451&gt;0, "Maribyrnong, ", ""), IF(J451&gt;0, "Knox, ", ""), IF(K451&gt;0, "Monash, ", ""))))-1),"")</f>
+        <v/>
+      </c>
+      <c r="V451" t="str">
         <f t="shared" ref="V451:V500" si="81">IFERROR(SUBSTITUTE(U451,","," and",LEN(U451)-LEN(SUBSTITUTE(U451,",",""))),U451)</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W451" s="10" t="str">
         <f t="shared" ref="W451:W500" si="82">IF(F451&lt;&gt;0, "M:\Newer Docs\Databases\Mailout\VGV Letters\VGV Authorisation Letter Melbourne.pdf", " ")</f>
@@ -32531,13 +32532,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U452" t="e">
+      <c r="U452" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V452" t="e">
+        <v/>
+      </c>
+      <c r="V452" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W452" s="10" t="str">
         <f t="shared" si="82"/>
@@ -32585,13 +32586,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U453" t="e">
+      <c r="U453" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V453" t="e">
+        <v/>
+      </c>
+      <c r="V453" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W453" s="10" t="str">
         <f t="shared" si="82"/>
@@ -32639,13 +32640,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U454" t="e">
+      <c r="U454" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V454" t="e">
+        <v/>
+      </c>
+      <c r="V454" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W454" s="10" t="str">
         <f t="shared" si="82"/>
@@ -32693,13 +32694,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U455" t="e">
+      <c r="U455" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V455" t="e">
+        <v/>
+      </c>
+      <c r="V455" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W455" s="10" t="str">
         <f t="shared" si="82"/>
@@ -32747,13 +32748,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U456" t="e">
+      <c r="U456" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V456" t="e">
+        <v/>
+      </c>
+      <c r="V456" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W456" s="10" t="str">
         <f t="shared" si="82"/>
@@ -32801,13 +32802,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U457" t="e">
+      <c r="U457" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V457" t="e">
+        <v/>
+      </c>
+      <c r="V457" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W457" s="10" t="str">
         <f t="shared" si="82"/>
@@ -32855,13 +32856,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U458" t="e">
+      <c r="U458" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V458" t="e">
+        <v/>
+      </c>
+      <c r="V458" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W458" s="10" t="str">
         <f t="shared" si="82"/>
@@ -32909,13 +32910,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U459" t="e">
+      <c r="U459" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V459" t="e">
+        <v/>
+      </c>
+      <c r="V459" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W459" s="10" t="str">
         <f t="shared" si="82"/>
@@ -32963,13 +32964,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U460" t="e">
+      <c r="U460" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V460" t="e">
+        <v/>
+      </c>
+      <c r="V460" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W460" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33017,13 +33018,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U461" t="e">
+      <c r="U461" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V461" t="e">
+        <v/>
+      </c>
+      <c r="V461" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W461" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33071,13 +33072,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U462" t="e">
+      <c r="U462" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V462" t="e">
+        <v/>
+      </c>
+      <c r="V462" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W462" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33125,13 +33126,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U463" t="e">
+      <c r="U463" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V463" t="e">
+        <v/>
+      </c>
+      <c r="V463" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W463" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33179,13 +33180,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U464" t="e">
+      <c r="U464" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V464" t="e">
+        <v/>
+      </c>
+      <c r="V464" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W464" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33233,13 +33234,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U465" t="e">
+      <c r="U465" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V465" t="e">
+        <v/>
+      </c>
+      <c r="V465" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W465" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33287,13 +33288,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U466" t="e">
+      <c r="U466" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V466" t="e">
+        <v/>
+      </c>
+      <c r="V466" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W466" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33341,13 +33342,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U467" t="e">
+      <c r="U467" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V467" t="e">
+        <v/>
+      </c>
+      <c r="V467" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W467" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33395,13 +33396,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U468" t="e">
+      <c r="U468" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V468" t="e">
+        <v/>
+      </c>
+      <c r="V468" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W468" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33449,13 +33450,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U469" t="e">
+      <c r="U469" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V469" t="e">
+        <v/>
+      </c>
+      <c r="V469" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W469" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33503,13 +33504,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U470" t="e">
+      <c r="U470" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V470" t="e">
+        <v/>
+      </c>
+      <c r="V470" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W470" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33557,13 +33558,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U471" t="e">
+      <c r="U471" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V471" t="e">
+        <v/>
+      </c>
+      <c r="V471" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W471" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33611,13 +33612,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U472" t="e">
+      <c r="U472" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V472" t="e">
+        <v/>
+      </c>
+      <c r="V472" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W472" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33665,13 +33666,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U473" t="e">
+      <c r="U473" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V473" t="e">
+        <v/>
+      </c>
+      <c r="V473" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W473" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33719,13 +33720,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U474" t="e">
+      <c r="U474" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V474" t="e">
+        <v/>
+      </c>
+      <c r="V474" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W474" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33773,13 +33774,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U475" t="e">
+      <c r="U475" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V475" t="e">
+        <v/>
+      </c>
+      <c r="V475" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W475" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33827,13 +33828,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U476" t="e">
+      <c r="U476" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V476" t="e">
+        <v/>
+      </c>
+      <c r="V476" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W476" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33881,13 +33882,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U477" t="e">
+      <c r="U477" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V477" t="e">
+        <v/>
+      </c>
+      <c r="V477" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W477" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33935,13 +33936,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U478" t="e">
+      <c r="U478" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V478" t="e">
+        <v/>
+      </c>
+      <c r="V478" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W478" s="10" t="str">
         <f t="shared" si="82"/>
@@ -33989,13 +33990,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U479" t="e">
+      <c r="U479" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V479" t="e">
+        <v/>
+      </c>
+      <c r="V479" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W479" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34043,13 +34044,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U480" t="e">
+      <c r="U480" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V480" t="e">
+        <v/>
+      </c>
+      <c r="V480" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W480" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34097,13 +34098,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U481" t="e">
+      <c r="U481" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V481" t="e">
+        <v/>
+      </c>
+      <c r="V481" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W481" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34151,13 +34152,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U482" t="e">
+      <c r="U482" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V482" t="e">
+        <v/>
+      </c>
+      <c r="V482" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W482" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34205,13 +34206,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U483" t="e">
+      <c r="U483" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V483" t="e">
+        <v/>
+      </c>
+      <c r="V483" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W483" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34259,13 +34260,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U484" t="e">
+      <c r="U484" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V484" t="e">
+        <v/>
+      </c>
+      <c r="V484" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W484" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34313,13 +34314,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U485" t="e">
+      <c r="U485" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V485" t="e">
+        <v/>
+      </c>
+      <c r="V485" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W485" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34367,13 +34368,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U486" t="e">
+      <c r="U486" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V486" t="e">
+        <v/>
+      </c>
+      <c r="V486" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W486" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34421,13 +34422,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U487" t="e">
+      <c r="U487" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V487" t="e">
+        <v/>
+      </c>
+      <c r="V487" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W487" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34475,13 +34476,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U488" t="e">
+      <c r="U488" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V488" t="e">
+        <v/>
+      </c>
+      <c r="V488" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W488" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34529,13 +34530,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U489" t="e">
+      <c r="U489" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V489" t="e">
+        <v/>
+      </c>
+      <c r="V489" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W489" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34583,13 +34584,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U490" t="e">
+      <c r="U490" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V490" t="e">
+        <v/>
+      </c>
+      <c r="V490" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W490" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34637,13 +34638,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U491" t="e">
+      <c r="U491" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V491" t="e">
+        <v/>
+      </c>
+      <c r="V491" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W491" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34691,13 +34692,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U492" t="e">
+      <c r="U492" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V492" t="e">
+        <v/>
+      </c>
+      <c r="V492" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W492" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34745,13 +34746,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U493" t="e">
+      <c r="U493" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V493" t="e">
+        <v/>
+      </c>
+      <c r="V493" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W493" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34799,13 +34800,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U494" t="e">
+      <c r="U494" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V494" t="e">
+        <v/>
+      </c>
+      <c r="V494" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W494" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34853,13 +34854,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U495" t="e">
+      <c r="U495" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V495" t="e">
+        <v/>
+      </c>
+      <c r="V495" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W495" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34907,13 +34908,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U496" t="e">
+      <c r="U496" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V496" t="e">
+        <v/>
+      </c>
+      <c r="V496" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W496" s="10" t="str">
         <f t="shared" si="82"/>
@@ -34961,13 +34962,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U497" t="e">
+      <c r="U497" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V497" t="e">
+        <v/>
+      </c>
+      <c r="V497" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W497" s="10" t="str">
         <f t="shared" si="82"/>
@@ -35015,13 +35016,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U498" t="e">
+      <c r="U498" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V498" t="e">
+        <v/>
+      </c>
+      <c r="V498" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W498" s="10" t="str">
         <f t="shared" si="82"/>
@@ -35069,13 +35070,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U499" t="e">
+      <c r="U499" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V499" t="e">
+        <v/>
+      </c>
+      <c r="V499" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W499" s="10" t="str">
         <f t="shared" si="82"/>
@@ -35123,13 +35124,13 @@
         <f t="shared" si="79"/>
         <v/>
       </c>
-      <c r="U500" t="e">
+      <c r="U500" t="str">
         <f t="shared" si="80"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V500" t="e">
+        <v/>
+      </c>
+      <c r="V500" t="str">
         <f t="shared" si="81"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="W500" s="10" t="str">
         <f t="shared" si="82"/>
@@ -35157,14 +35158,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T98"/>
+  <autoFilter ref="A1:T98" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
+    <customSheetView guid="{FC8A8EEF-AA1A-4C32-A1B7-16C06299367C}" scale="85" showAutoFilter="1">
+      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:J269" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
     <customSheetView guid="{1EBB3E1E-8969-44A1-8507-75593D680DDF}" scale="85" filter="1" showAutoFilter="1">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="G266" sqref="G266"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A1:J265">
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A1:J265" xr:uid="{00000000-0000-0000-0000-000000000000}">
         <filterColumn colId="0">
           <filters>
             <filter val="Melbourne"/>
@@ -35185,13 +35193,6 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{FC8A8EEF-AA1A-4C32-A1B7-16C06299367C}" scale="85" showAutoFilter="1">
-      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:J269"/>
-    </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1:T1">
     <cfRule type="expression" dxfId="0" priority="4">
